--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="215">
   <si>
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
@@ -576,9 +576,6 @@
   </si>
   <si>
     <t xml:space="preserve">ACCESS1-3_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCLM5-0-15</t>
   </si>
   <si>
     <t xml:space="preserve">CLMcom-HZG</t>
@@ -1909,7 +1906,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1975,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -2013,13 +2010,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -2034,7 +2031,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -2051,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -2089,13 +2086,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>48</v>
@@ -2127,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -2165,13 +2162,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>48</v>
@@ -2203,7 +2200,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2241,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -2279,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -2306,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>32</v>
@@ -2317,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -2344,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>32</v>
@@ -2355,7 +2352,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2382,7 +2379,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>32</v>
@@ -2414,8 +2411,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="10.67"/>
@@ -2425,7 +2422,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2491,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -2523,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -2555,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -2587,7 +2584,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
@@ -2608,16 +2605,16 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2625,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>120</v>
@@ -2646,13 +2643,13 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2660,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -2681,16 +2678,16 @@
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2698,7 +2695,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>42</v>
@@ -2719,13 +2716,13 @@
         <v>20</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AMF12" s="15"/>
       <c r="AMG12" s="15"/>
@@ -2738,7 +2735,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -2765,7 +2762,7 @@
         <v>22</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>32</v>
@@ -2776,7 +2773,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>61</v>
@@ -2797,16 +2794,16 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>212</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2814,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -2829,22 +2826,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2852,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -2884,7 +2881,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
@@ -2916,7 +2913,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -2970,7 +2967,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="5" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
@@ -10375,7 +10372,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -10858,8 +10855,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11331,7 +11328,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
@@ -11346,7 +11343,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -11369,7 +11366,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>85</v>
@@ -11384,7 +11381,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -11407,7 +11404,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -11422,7 +11419,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -11445,7 +11442,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>44</v>
@@ -11483,7 +11480,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>44</v>
@@ -11521,7 +11518,7 @@
         <v>181</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>44</v>
@@ -11559,7 +11556,7 @@
         <v>181</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>44</v>
@@ -11597,7 +11594,7 @@
         <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>44</v>
@@ -11635,7 +11632,7 @@
         <v>178</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>44</v>
@@ -11667,28 +11664,28 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>22</v>
@@ -11703,28 +11700,28 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>22</v>
@@ -11739,28 +11736,28 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>22</v>
@@ -11775,28 +11772,28 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>22</v>
@@ -11811,28 +11808,28 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>22</v>
@@ -11847,28 +11844,28 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>22</v>
@@ -11905,9 +11902,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
@@ -11918,7 +11915,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11984,7 +11981,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -12022,13 +12019,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
@@ -12057,13 +12054,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -12092,13 +12089,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>44</v>
@@ -12127,37 +12124,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12165,37 +12162,37 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12203,13 +12200,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>44</v>
@@ -12224,7 +12221,7 @@
         <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -12239,13 +12236,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>44</v>
@@ -12260,7 +12257,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>22</v>
@@ -12275,13 +12272,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>44</v>
@@ -12296,7 +12293,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -12311,13 +12308,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>44</v>
@@ -12332,7 +12329,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -12347,13 +12344,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
@@ -12368,7 +12365,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>

--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="215">
   <si>
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
@@ -10853,10 +10853,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ30"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11667,7 +11667,7 @@
         <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>186</v>
@@ -11703,7 +11703,7 @@
         <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>186</v>
@@ -11739,7 +11739,7 @@
         <v>185</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>186</v>
@@ -11775,7 +11775,7 @@
         <v>185</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>186</v>
@@ -11811,7 +11811,7 @@
         <v>185</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>186</v>
@@ -11839,42 +11839,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="3"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="214">
   <si>
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t xml:space="preserve">CSIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HadGEM2-CC_r1i1p1</t>
   </si>
   <si>
     <t xml:space="preserve">10: Antarctica (ANT): https://cordex.org/domains/region-10-antarctica/ </t>
@@ -1906,7 +1903,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1972,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -2010,13 +2007,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -2031,7 +2028,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -2048,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -2086,13 +2083,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>48</v>
@@ -2124,7 +2121,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -2162,13 +2159,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>48</v>
@@ -2200,7 +2197,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2238,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -2276,7 +2273,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -2303,7 +2300,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>32</v>
@@ -2314,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -2341,7 +2338,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>32</v>
@@ -2352,7 +2349,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2379,7 +2376,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>32</v>
@@ -2422,7 +2419,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2488,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -2520,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -2552,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -2584,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
@@ -2605,16 +2602,16 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2622,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>120</v>
@@ -2643,13 +2640,13 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2657,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -2678,16 +2675,16 @@
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2695,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>42</v>
@@ -2716,13 +2713,13 @@
         <v>20</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AMF12" s="15"/>
       <c r="AMG12" s="15"/>
@@ -2735,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -2762,7 +2759,7 @@
         <v>22</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>32</v>
@@ -2773,7 +2770,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>61</v>
@@ -2794,16 +2791,16 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2811,7 +2808,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -2826,22 +2823,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2849,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -2881,7 +2878,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
@@ -2913,7 +2910,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -10856,7 +10853,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11703,7 +11700,7 @@
         <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>186</v>
@@ -11880,7 +11877,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11946,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -11984,13 +11981,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
@@ -12019,13 +12016,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -12054,13 +12051,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>44</v>
@@ -12089,37 +12086,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12127,37 +12124,37 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12165,7 +12162,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>178</v>
@@ -12201,7 +12198,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -12237,7 +12234,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
@@ -12273,7 +12270,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -12309,7 +12306,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>

--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gutierjm/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804396AF-4F14-B248-8869-B5528E13E399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20680" windowHeight="12660" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2.CAM-final" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="3.NAM-final" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="4.EUR" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="5.AFR" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="6.WAS-final" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="7.EAS-final" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="9.AUS" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="10.ANT" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="11.ARC-final" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="14.SEA" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="1.SAM-final" sheetId="1" r:id="rId1"/>
+    <sheet name="2.CAM-final" sheetId="2" r:id="rId2"/>
+    <sheet name="3.NAM-final" sheetId="3" r:id="rId3"/>
+    <sheet name="4.EUR" sheetId="4" r:id="rId4"/>
+    <sheet name="5.AFR" sheetId="5" r:id="rId5"/>
+    <sheet name="6.WAS-final" sheetId="6" r:id="rId6"/>
+    <sheet name="7.EAS-final" sheetId="7" r:id="rId7"/>
+    <sheet name="9.AUS" sheetId="8" r:id="rId8"/>
+    <sheet name="10.ANT" sheetId="9" r:id="rId9"/>
+    <sheet name="11.ARC-final" sheetId="10" r:id="rId10"/>
+    <sheet name="14.SEA" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -35,653 +40,650 @@
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
   <si>
-    <t xml:space="preserve">(*) Details on registered RCMs at https://github.com/IS-ENES-Data/cordex/blob/master/CORDEX_register.xlsx; see also http://is-enes-data.github.io/CORDEX_RCMs_info.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on the CORDEX inventory by Dec-2020, https://cordex.org/data-access/regional-climate-change-simulations-for-cordex-domains/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCM_run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCP2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCP4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCP8.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CanESM2_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eta_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1961-2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-2099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESGF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smaller domain (not fully covering SSA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIROC5_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.4236/ajcc.2014.35043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HadGEM2-ES_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMO2015_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1970-2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERICS</t>
+    <t>(*) Details on registered RCMs at https://github.com/IS-ENES-Data/cordex/blob/master/CORDEX_register.xlsx; see also http://is-enes-data.github.io/CORDEX_RCMs_info.html</t>
+  </si>
+  <si>
+    <t>Based on the CORDEX inventory by Dec-2020, https://cordex.org/data-access/regional-climate-change-simulations-for-cordex-domains/</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>GCM_run</t>
+  </si>
+  <si>
+    <t>RCM</t>
+  </si>
+  <si>
+    <t>Historical</t>
+  </si>
+  <si>
+    <t>RCP2.6</t>
+  </si>
+  <si>
+    <t>RCP4.5</t>
+  </si>
+  <si>
+    <t>RCP8.5</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Access (1)</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>SAM-20</t>
+  </si>
+  <si>
+    <t>CanESM2_r1i1p1</t>
+  </si>
+  <si>
+    <t>Eta_v1</t>
+  </si>
+  <si>
+    <t>1961-2005</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2006-2099</t>
+  </si>
+  <si>
+    <t>INPE</t>
+  </si>
+  <si>
+    <t>ESGF</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Smaller domain (not fully covering SSA)</t>
+  </si>
+  <si>
+    <t>MIROC5_r1i1p1</t>
+  </si>
+  <si>
+    <t>DOI:10.4236/ajcc.2014.35043</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_r1i1p1</t>
+  </si>
+  <si>
+    <t>SAM-22</t>
+  </si>
+  <si>
+    <t>REMO2015_v1</t>
+  </si>
+  <si>
+    <t>1970-2005</t>
+  </si>
+  <si>
+    <t>GERICS</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">MPI-ESM-LR_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-2100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NorESM1-M_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegCM4-7_v0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPI-ESM-MR_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegCM4-3_v4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-2099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GFDL-ESM2M_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMO2009_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1950-2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPI-CSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSIRO-Mk3-6-0_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCA4_v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1951-2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC-EARTH_r12i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPSL-CM5A-MR_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF341I_v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCAN</t>
+    <t>MPI-ESM-LR_r1i1p1</t>
+  </si>
+  <si>
+    <t>2006-2100</t>
+  </si>
+  <si>
+    <t>NorESM1-M_r1i1p1</t>
+  </si>
+  <si>
+    <t>RegCM4-7_v0</t>
+  </si>
+  <si>
+    <t>ICTP</t>
+  </si>
+  <si>
+    <t>MPI-ESM-MR_r1i1p1</t>
+  </si>
+  <si>
+    <t>SAM-44</t>
+  </si>
+  <si>
+    <t>RegCM4-3_v4</t>
+  </si>
+  <si>
+    <t>2005-2099</t>
+  </si>
+  <si>
+    <t>GFDL-ESM2M_r1i1p1</t>
+  </si>
+  <si>
+    <t>REMO2009_v1</t>
+  </si>
+  <si>
+    <t>1950-2005</t>
+  </si>
+  <si>
+    <t>MPI-CSC</t>
+  </si>
+  <si>
+    <t>CSIRO-Mk3-6-0_r1i1p1</t>
+  </si>
+  <si>
+    <t>RCA4_v3</t>
+  </si>
+  <si>
+    <t>1951-2005</t>
+  </si>
+  <si>
+    <t>SMHI</t>
+  </si>
+  <si>
+    <t>EC-EARTH_r12i1p1</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-MR_r1i1p1</t>
+  </si>
+  <si>
+    <t>WRF341I_v2</t>
+  </si>
+  <si>
+    <t>UCAN</t>
   </si>
   <si>
     <t xml:space="preserve">2: Central America (CAM): https://cordex.org/domains/cordex-region-central-america-cordex/ </t>
   </si>
   <si>
-    <t xml:space="preserve">CAM-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCM5_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OURANOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAM-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCA4_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNRM-CM5_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/joc.6286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAM-22/44</t>
+    <t>CAM-22</t>
+  </si>
+  <si>
+    <t>CRCM5_v1</t>
+  </si>
+  <si>
+    <t>OURANOS</t>
+  </si>
+  <si>
+    <t>CAM-44</t>
+  </si>
+  <si>
+    <t>RCA4_v1</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6276</t>
+  </si>
+  <si>
+    <t>CNRM-CM5_r1i1p1</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6277</t>
+  </si>
+  <si>
+    <t>Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6278</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6280</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6281</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6282</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6283</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6284</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6285</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/joc.6286</t>
+  </si>
+  <si>
+    <t>CAM-22/44</t>
   </si>
   <si>
     <t xml:space="preserve">3: North America (NAM): https://cordex.org/domains/region1-north-america/ </t>
   </si>
   <si>
-    <t xml:space="preserve">NAM-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With spectral nudging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With spectral nudging; Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAM-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC-EARTH_r3i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIRHAM5_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAM-22/44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CanRCM4_r2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.5065/D6SJ1JCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1949-2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESM2M_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegCM4_v4-4-rc8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF_v3-5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UA</t>
+    <t>NAM-22</t>
+  </si>
+  <si>
+    <t>With spectral nudging</t>
+  </si>
+  <si>
+    <t>With spectral nudging; Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
+  </si>
+  <si>
+    <t>NAM-44</t>
+  </si>
+  <si>
+    <t>EC-EARTH_r3i1p1</t>
+  </si>
+  <si>
+    <t>HIRHAM5_v1</t>
+  </si>
+  <si>
+    <t>DMI</t>
+  </si>
+  <si>
+    <t>NAM-22/44</t>
+  </si>
+  <si>
+    <t>CanRCM4_r2</t>
+  </si>
+  <si>
+    <t>CCCma</t>
+  </si>
+  <si>
+    <t>DOI:10.5065/D6SJ1JCH</t>
+  </si>
+  <si>
+    <t>1949-2005</t>
+  </si>
+  <si>
+    <t>UQAM</t>
+  </si>
+  <si>
+    <t>ESM2M_r1i1p1</t>
+  </si>
+  <si>
+    <t>RegCM4_v4-4-rc8</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>NCAR</t>
+  </si>
+  <si>
+    <t>WRF_v3-5-1</t>
+  </si>
+  <si>
+    <t>UA</t>
   </si>
   <si>
     <t xml:space="preserve">4: Europe (EUR): https://cordex.org/domains/cordex-region-euro-cordex/ </t>
   </si>
   <si>
-    <t xml:space="preserve">EUR-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSMO-crCLIM-v1-1_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLMcom-ETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/2016JD026014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/2016JD026015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/2016JD026016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPI-ESM-LR_r2i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/2016JD026017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPI-ESM-LR_r3i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/2016JD026018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/2016JD026019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCLM4-8-17_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLMcom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLMcom-BTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CanESM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALADIN53_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNRM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1111/j.1600-0870.2010.00467.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALADIN63_v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.5194/acp-20-8315-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALADIN63_v1</t>
+    <t>EUR-11</t>
+  </si>
+  <si>
+    <t>COSMO-crCLIM-v1-1_v1</t>
+  </si>
+  <si>
+    <t>CLMcom-ETH</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/2016JD026014</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/2016JD026015</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/2016JD026016</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_r2i1p1</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/2016JD026017</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_r3i1p1</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/2016JD026018</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/2016JD026019</t>
+  </si>
+  <si>
+    <t>CCLM4-8-17_v1</t>
+  </si>
+  <si>
+    <t>CLMcom</t>
+  </si>
+  <si>
+    <t>Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
+  </si>
+  <si>
+    <t>CLMcom-BTU</t>
+  </si>
+  <si>
+    <t>CanESM2</t>
+  </si>
+  <si>
+    <t>ALADIN53_v1</t>
+  </si>
+  <si>
+    <t>CNRM</t>
+  </si>
+  <si>
+    <t>DOI:10.1111/j.1600-0870.2010.00467.x</t>
+  </si>
+  <si>
+    <t>ALADIN63_v2</t>
+  </si>
+  <si>
+    <t>DOI:10.5194/acp-20-8315-2020</t>
+  </si>
+  <si>
+    <t>ALADIN63_v1</t>
   </si>
   <si>
     <t xml:space="preserve"> CNRM</t>
   </si>
   <si>
-    <t xml:space="preserve">HIRHAM5_v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC-EARTH_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIRHAM5_v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPSL-CM5A-LR_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1948-2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GFDL-ESM2G_r1i1p1</t>
+    <t>HIRHAM5_v2</t>
+  </si>
+  <si>
+    <t>EC-EARTH_r1i1p1</t>
+  </si>
+  <si>
+    <t>HIRHAM5_v3</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-LR_r1i1p1</t>
+  </si>
+  <si>
+    <t>1948-2005</t>
+  </si>
+  <si>
+    <t>GFDL-ESM2G_r1i1p1</t>
   </si>
   <si>
     <t xml:space="preserve">CNRM-CM5 </t>
   </si>
   <si>
-    <t xml:space="preserve">REMO2015_v2</t>
+    <t>REMO2015_v2</t>
   </si>
   <si>
     <t xml:space="preserve"> 1950-2005</t>
   </si>
   <si>
-    <t xml:space="preserve">RegCM4-6_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-2100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF381P_v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF381P_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF361H_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UHOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACMO22E_v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACMO22E_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HadREM3-GA7-05_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOHC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.5194/gmd-12-1909-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.5194/gmd-12-1909-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.5194/gmd-12-1909-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1007/s10113-014-0587-y; DOI:10.1007/s10113-013-0499-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALARO-0_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMIB-UGent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCA4_v1a</t>
+    <t>RegCM4-6_v1</t>
+  </si>
+  <si>
+    <t>2005-2100</t>
+  </si>
+  <si>
+    <t>WRF381P_v2</t>
+  </si>
+  <si>
+    <t>IPSL</t>
+  </si>
+  <si>
+    <t>WRF381P_v1</t>
+  </si>
+  <si>
+    <t>WRF361H_v1</t>
+  </si>
+  <si>
+    <t>UHOH</t>
+  </si>
+  <si>
+    <t>RACMO22E_v2</t>
+  </si>
+  <si>
+    <t>KNMI</t>
+  </si>
+  <si>
+    <t>RACMO22E_v1</t>
+  </si>
+  <si>
+    <t>HadREM3-GA7-05_v1</t>
+  </si>
+  <si>
+    <t>MOHC</t>
+  </si>
+  <si>
+    <t>DOI:10.5194/gmd-12-1909-2020</t>
+  </si>
+  <si>
+    <t>DOI:10.5194/gmd-12-1909-2021</t>
+  </si>
+  <si>
+    <t>DOI:10.5194/gmd-12-1909-2019</t>
+  </si>
+  <si>
+    <t>DOI:10.1007/s10113-014-0587-y; DOI:10.1007/s10113-013-0499-2</t>
+  </si>
+  <si>
+    <t>ALARO-0_v1</t>
+  </si>
+  <si>
+    <t>RMIB-UGent</t>
+  </si>
+  <si>
+    <t>RCA4_v1a</t>
   </si>
   <si>
     <t xml:space="preserve">5: Africa (AFR): https://cordex.org/domains/region-5-africa/ </t>
   </si>
   <si>
-    <t xml:space="preserve">AFR-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCLM5-0-15_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-2098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLMcom-KIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-2063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-2073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFR-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/2017EF000714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACMO22T_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACMO22T_v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFR-22/44</t>
+    <t>AFR-22</t>
+  </si>
+  <si>
+    <t>CCLM5-0-15_v1</t>
+  </si>
+  <si>
+    <t>2006-2098</t>
+  </si>
+  <si>
+    <t>CLMcom-KIT</t>
+  </si>
+  <si>
+    <t>2005-2063</t>
+  </si>
+  <si>
+    <t>2005-2073</t>
+  </si>
+  <si>
+    <t>AFR-44</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/2017EF000714</t>
+  </si>
+  <si>
+    <t>RACMO22T_v1</t>
+  </si>
+  <si>
+    <t>RACMO22T_v2</t>
+  </si>
+  <si>
+    <t>AFR-22/44</t>
   </si>
   <si>
     <t xml:space="preserve">6: South Asia (WAS): https://cordex.org/domains/region-6-south-asia-2/ </t>
   </si>
   <si>
-    <t xml:space="preserve">WAS-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1002/2016JD026013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORNL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In ESGF the model is labelled "ICTP-ReGCM4-7" and should "ORNL-RegCM4-7"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAS-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegCM4-4_v5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IITM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-2085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.3390/atmos4020214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCA4_v2</t>
+    <t>WAS-22</t>
+  </si>
+  <si>
+    <t>2006-2009</t>
+  </si>
+  <si>
+    <t>DOI:10.1002/2016JD026013</t>
+  </si>
+  <si>
+    <t>ORNL</t>
+  </si>
+  <si>
+    <t>In ESGF the model is labelled "ICTP-ReGCM4-7" and should "ORNL-RegCM4-7"</t>
+  </si>
+  <si>
+    <t>WAS-44</t>
+  </si>
+  <si>
+    <t>RegCM4-4_v5</t>
+  </si>
+  <si>
+    <t>IITM</t>
+  </si>
+  <si>
+    <t>2006-2085</t>
+  </si>
+  <si>
+    <t>DOI:10.3390/atmos4020214</t>
+  </si>
+  <si>
+    <t>RCA4_v2</t>
   </si>
   <si>
     <t xml:space="preserve">7: East Asia (EAS): https://cordex.org/domains/region-7-east-asia/ </t>
   </si>
   <si>
-    <t xml:space="preserve">EAS-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAS-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCLM5-0-2_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegCM4-4_v0</t>
+    <t>EAS-22</t>
+  </si>
+  <si>
+    <t>EAS-44</t>
+  </si>
+  <si>
+    <t>CCLM5-0-2_v1</t>
+  </si>
+  <si>
+    <t>RegCM4-4_v0</t>
   </si>
   <si>
     <t xml:space="preserve">9: Australasia (AUS): https://cordex.org/domains/region-9-australasia/ </t>
   </si>
   <si>
-    <t xml:space="preserve">AUS-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUS-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCLM4-8-17-CLM3-5_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCESS1-0_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF360L_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCESS1-3_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLMcom-HZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF360J_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF360K_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUS-44i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCAM-2008_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1960-2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSIRO</t>
+    <t>AUS-22</t>
+  </si>
+  <si>
+    <t>AUS-44</t>
+  </si>
+  <si>
+    <t>CCLM4-8-17-CLM3-5_v1</t>
+  </si>
+  <si>
+    <t>ACCESS1-0_r1i1p1</t>
+  </si>
+  <si>
+    <t>WRF360L_v1</t>
+  </si>
+  <si>
+    <t>UNSW</t>
+  </si>
+  <si>
+    <t>ACCESS1-3_r1i1p1</t>
+  </si>
+  <si>
+    <t>CLMcom-HZG</t>
+  </si>
+  <si>
+    <t>WRF360J_v1</t>
+  </si>
+  <si>
+    <t>WRF360K_v1</t>
+  </si>
+  <si>
+    <t>AUS-44i</t>
+  </si>
+  <si>
+    <t>CCAM-2008_v1</t>
+  </si>
+  <si>
+    <t>1960-2005</t>
+  </si>
+  <si>
+    <t>CSIRO</t>
   </si>
   <si>
     <t xml:space="preserve">10: Antarctica (ANT): https://cordex.org/domains/region-10-antarctica/ </t>
   </si>
   <si>
-    <t xml:space="preserve">ANT-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACMO21P_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACMO21P_v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR311_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1980-2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.5194/tc-2020-291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antarctica 35 km stereosouth projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANT-44i</t>
+    <t>ANT-44</t>
+  </si>
+  <si>
+    <t>RACMO21P_v1</t>
+  </si>
+  <si>
+    <t>RACMO21P_v2</t>
+  </si>
+  <si>
+    <t>MAR311_v1</t>
+  </si>
+  <si>
+    <t>1980-2005</t>
+  </si>
+  <si>
+    <t>Ulg</t>
+  </si>
+  <si>
+    <t>DOI:10.5194/tc-2020-291</t>
+  </si>
+  <si>
+    <t>Antarctica 35 km stereosouth projection</t>
+  </si>
+  <si>
+    <t>ANT-44i</t>
   </si>
   <si>
     <t xml:space="preserve">11: Arctic (ARC): https://cordex.org/domains/region-11-arctic/  </t>
   </si>
   <si>
-    <t xml:space="preserve">ARC-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRCM_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCA4-SN_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARC-22/44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1175/JCLI-D-15-0161.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1007/s00382-017-3912-6</t>
+    <t>ARC-44</t>
+  </si>
+  <si>
+    <t>RRCM_v1</t>
+  </si>
+  <si>
+    <t>MGO</t>
+  </si>
+  <si>
+    <t>RCA4-SN_v1</t>
+  </si>
+  <si>
+    <t>ARC-22/44</t>
+  </si>
+  <si>
+    <t>DOI:10.1175/JCLI-D-15-0161.1</t>
+  </si>
+  <si>
+    <t>DOI:10.1007/s00382-017-3912-6</t>
   </si>
   <si>
     <t xml:space="preserve">14: South-East Asia (SEA): https://cordex.org/domains/region-14-south-east-asia-sea/ </t>
   </si>
   <si>
-    <t xml:space="preserve">SEA-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU-CORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI:10.1007/s00382-020-05322-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang). Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php . Only historical and rcp45 experiments are available on ESGF for a few variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-2069</t>
+    <t>SEA-22</t>
+  </si>
+  <si>
+    <t>RU-CORE</t>
+  </si>
+  <si>
+    <t>DOI:10.1007/s00382-020-05322-2</t>
+  </si>
+  <si>
+    <t>In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang)</t>
+  </si>
+  <si>
+    <t>In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang). Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php . Only historical and rcp45 experiments are available on ESGF for a few variables</t>
+  </si>
+  <si>
+    <t>2006-2069</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -690,22 +692,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -726,7 +713,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -754,7 +741,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -762,121 +749,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -935,42 +844,350 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30" style="1" customWidth="1"/>
+    <col min="13" max="1019" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1020" max="1023" width="10.5" customWidth="1"/>
+    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -980,7 +1197,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -990,8 +1207,8 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1246,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1067,8 +1284,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1105,8 +1322,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1143,8 +1360,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1181,8 +1398,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1219,8 +1436,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1257,8 +1474,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1295,8 +1512,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1333,8 +1550,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1371,8 +1588,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1409,8 +1626,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1447,8 +1664,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1485,8 +1702,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1523,8 +1740,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1561,8 +1778,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1599,8 +1816,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1637,8 +1854,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1675,8 +1892,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1713,8 +1930,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1751,8 +1968,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1789,8 +2006,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1827,8 +2044,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1866,47 +2083,39 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="1019" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1020" max="1023" width="10.5" customWidth="1"/>
+    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1916,7 +2125,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1926,7 +2135,7 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1964,8 +2173,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2002,8 +2211,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2040,8 +2249,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2078,8 +2287,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2116,8 +2325,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2154,8 +2363,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2192,8 +2401,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2230,8 +2439,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2268,8 +2477,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2306,8 +2515,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2344,8 +2553,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2383,46 +2592,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="8" customWidth="1"/>
+    <col min="12" max="1019" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1020" max="1023" width="10.5" customWidth="1"/>
+    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2432,7 +2633,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2442,7 +2643,7 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2681,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2512,8 +2713,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2544,8 +2745,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2576,8 +2777,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2614,8 +2815,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2649,8 +2850,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2687,8 +2888,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+    <row r="12" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2727,8 +2928,8 @@
       <c r="AMI12" s="15"/>
       <c r="AMJ12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2765,8 +2966,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2803,8 +3004,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2841,8 +3042,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2873,8 +3074,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2905,8 +3106,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2938,44 +3139,36 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="1019" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1020" max="1023" width="10.5" customWidth="1"/>
+    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2985,7 +3178,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2995,10 +3188,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3036,8 +3229,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3074,8 +3267,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3112,8 +3305,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3150,8 +3343,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3188,8 +3381,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3226,8 +3419,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3264,8 +3457,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3300,8 +3493,8 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3338,8 +3531,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3376,8 +3569,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3414,8 +3607,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3452,8 +3645,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3490,8 +3683,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3528,8 +3721,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3566,8 +3759,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3604,8 +3797,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3642,8 +3835,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3680,8 +3873,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3718,8 +3911,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3756,8 +3949,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -3794,8 +3987,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -3830,46 +4023,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="12" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1018" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="1" customWidth="1"/>
+    <col min="12" max="1017" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1018" max="1023" width="10.5" customWidth="1"/>
+    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3879,7 +4064,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3889,7 +4074,7 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3927,8 +4112,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3963,8 +4148,8 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3999,8 +4184,8 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4035,8 +4220,8 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4073,8 +4258,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4112,8 +4297,8 @@
       </c>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4150,8 +4335,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4188,8 +4373,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4226,8 +4411,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4264,8 +4449,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4302,8 +4487,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4340,8 +4525,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4378,8 +4563,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4416,8 +4601,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4454,8 +4639,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4492,8 +4677,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4530,8 +4715,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4568,8 +4753,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4606,8 +4791,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4642,8 +4827,8 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4679,46 +4864,38 @@
       <c r="L25" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMK74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="4.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="22.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="13" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="13" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="13" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="13" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="15" width="8.84"/>
+    <col min="1" max="1" width="4.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="13" customWidth="1"/>
+    <col min="5" max="8" width="10.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12" style="13" customWidth="1"/>
+    <col min="11" max="1019" width="10.6640625" style="13" customWidth="1"/>
+    <col min="1020" max="1025" width="8.83203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4728,7 +4905,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4738,14 +4915,14 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AMF4" s="4"/>
       <c r="AMG4" s="4"/>
       <c r="AMH4" s="4"/>
       <c r="AMI4" s="4"/>
       <c r="AMJ4" s="4"/>
     </row>
-    <row r="5" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -4783,8 +4960,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4826,8 +5003,8 @@
       <c r="AMI6" s="4"/>
       <c r="AMJ6" s="4"/>
     </row>
-    <row r="7" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4869,8 +5046,8 @@
       <c r="AMI7" s="4"/>
       <c r="AMJ7" s="4"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4912,8 +5089,8 @@
       <c r="AMI8" s="4"/>
       <c r="AMJ8" s="4"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4955,8 +5132,8 @@
       <c r="AMI9" s="4"/>
       <c r="AMJ9" s="4"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4998,8 +5175,8 @@
       <c r="AMI10" s="4"/>
       <c r="AMJ10" s="4"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -5041,8 +5218,8 @@
       <c r="AMI11" s="4"/>
       <c r="AMJ11" s="4"/>
     </row>
-    <row r="12" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -5084,8 +5261,8 @@
       <c r="AMI12" s="4"/>
       <c r="AMJ12" s="4"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -5127,8 +5304,8 @@
       <c r="AMI13" s="4"/>
       <c r="AMJ13" s="4"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5170,8 +5347,8 @@
       <c r="AMI14" s="4"/>
       <c r="AMJ14" s="4"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -5213,8 +5390,8 @@
       <c r="AMI15" s="4"/>
       <c r="AMJ15" s="4"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -5256,8 +5433,8 @@
       <c r="AMI16" s="4"/>
       <c r="AMJ16" s="4"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -5299,8 +5476,8 @@
       <c r="AMI17" s="4"/>
       <c r="AMJ17" s="4"/>
     </row>
-    <row r="18" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -5342,8 +5519,8 @@
       <c r="AMI18" s="4"/>
       <c r="AMJ18" s="4"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -5382,8 +5559,8 @@
       <c r="AMI19" s="4"/>
       <c r="AMJ19" s="4"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -5425,8 +5602,8 @@
       <c r="AMI20" s="4"/>
       <c r="AMJ20" s="4"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5468,8 +5645,8 @@
       <c r="AMI21" s="4"/>
       <c r="AMJ21" s="4"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -5511,8 +5688,8 @@
       <c r="AMI22" s="4"/>
       <c r="AMJ22" s="4"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -5551,8 +5728,8 @@
       <c r="AMI23" s="4"/>
       <c r="AMJ23" s="4"/>
     </row>
-    <row r="24" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -5594,8 +5771,8 @@
       <c r="AMI24" s="4"/>
       <c r="AMJ24" s="4"/>
     </row>
-    <row r="25" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -5637,8 +5814,8 @@
       <c r="AMI25" s="4"/>
       <c r="AMJ25" s="4"/>
     </row>
-    <row r="26" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -5680,8 +5857,8 @@
       <c r="AMI26" s="4"/>
       <c r="AMJ26" s="4"/>
     </row>
-    <row r="27" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -5723,8 +5900,8 @@
       <c r="AMI27" s="4"/>
       <c r="AMJ27" s="4"/>
     </row>
-    <row r="28" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -5766,8 +5943,8 @@
       <c r="AMI28" s="4"/>
       <c r="AMJ28" s="4"/>
     </row>
-    <row r="29" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5809,8 +5986,8 @@
       <c r="AMI29" s="4"/>
       <c r="AMJ29" s="4"/>
     </row>
-    <row r="30" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -5852,8 +6029,8 @@
       <c r="AMI30" s="4"/>
       <c r="AMJ30" s="4"/>
     </row>
-    <row r="31" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -5895,8 +6072,8 @@
       <c r="AMI31" s="4"/>
       <c r="AMJ31" s="4"/>
     </row>
-    <row r="32" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -5938,8 +6115,8 @@
       <c r="AMI32" s="4"/>
       <c r="AMJ32" s="4"/>
     </row>
-    <row r="33" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -5981,8 +6158,8 @@
       <c r="AMI33" s="4"/>
       <c r="AMJ33" s="4"/>
     </row>
-    <row r="34" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+    <row r="34" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -6024,8 +6201,8 @@
       <c r="AMI34" s="4"/>
       <c r="AMJ34" s="4"/>
     </row>
-    <row r="35" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+    <row r="35" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -6067,8 +6244,8 @@
       <c r="AMI35" s="4"/>
       <c r="AMJ35" s="4"/>
     </row>
-    <row r="36" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+    <row r="36" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -6110,8 +6287,8 @@
       <c r="AMI36" s="4"/>
       <c r="AMJ36" s="4"/>
     </row>
-    <row r="37" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+    <row r="37" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -6153,8 +6330,8 @@
       <c r="AMI37" s="4"/>
       <c r="AMJ37" s="4"/>
     </row>
-    <row r="38" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+    <row r="38" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -6196,8 +6373,8 @@
       <c r="AMI38" s="4"/>
       <c r="AMJ38" s="4"/>
     </row>
-    <row r="39" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+    <row r="39" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -6239,8 +6416,8 @@
       <c r="AMI39" s="4"/>
       <c r="AMJ39" s="4"/>
     </row>
-    <row r="40" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+    <row r="40" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -6282,8 +6459,8 @@
       <c r="AMI40" s="4"/>
       <c r="AMJ40" s="4"/>
     </row>
-    <row r="41" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+    <row r="41" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -6325,8 +6502,8 @@
       <c r="AMI41" s="4"/>
       <c r="AMJ41" s="4"/>
     </row>
-    <row r="42" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+    <row r="42" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -6368,8 +6545,8 @@
       <c r="AMI42" s="4"/>
       <c r="AMJ42" s="4"/>
     </row>
-    <row r="43" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+    <row r="43" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -6408,8 +6585,8 @@
       <c r="AMI43" s="4"/>
       <c r="AMJ43" s="4"/>
     </row>
-    <row r="44" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+    <row r="44" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>39</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -6451,8 +6628,8 @@
       <c r="AMI44" s="4"/>
       <c r="AMJ44" s="4"/>
     </row>
-    <row r="45" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+    <row r="45" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -6494,8 +6671,8 @@
       <c r="AMI45" s="4"/>
       <c r="AMJ45" s="4"/>
     </row>
-    <row r="46" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+    <row r="46" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -6537,8 +6714,8 @@
       <c r="AMI46" s="4"/>
       <c r="AMJ46" s="4"/>
     </row>
-    <row r="47" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+    <row r="47" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -6580,8 +6757,8 @@
       <c r="AMI47" s="4"/>
       <c r="AMJ47" s="4"/>
     </row>
-    <row r="48" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+    <row r="48" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -6623,8 +6800,8 @@
       <c r="AMI48" s="4"/>
       <c r="AMJ48" s="4"/>
     </row>
-    <row r="49" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+    <row r="49" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -6666,8 +6843,8 @@
       <c r="AMI49" s="4"/>
       <c r="AMJ49" s="4"/>
     </row>
-    <row r="50" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+    <row r="50" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -6709,8 +6886,8 @@
       <c r="AMI50" s="4"/>
       <c r="AMJ50" s="4"/>
     </row>
-    <row r="51" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+    <row r="51" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -6752,8 +6929,8 @@
       <c r="AMI51" s="4"/>
       <c r="AMJ51" s="4"/>
     </row>
-    <row r="52" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+    <row r="52" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>47</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -6795,8 +6972,8 @@
       <c r="AMI52" s="4"/>
       <c r="AMJ52" s="4"/>
     </row>
-    <row r="53" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+    <row r="53" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>48</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -6838,8 +7015,8 @@
       <c r="AMI53" s="4"/>
       <c r="AMJ53" s="4"/>
     </row>
-    <row r="54" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+    <row r="54" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -6881,8 +7058,8 @@
       <c r="AMI54" s="4"/>
       <c r="AMJ54" s="4"/>
     </row>
-    <row r="55" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+    <row r="55" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -6924,8 +7101,8 @@
       <c r="AMI55" s="4"/>
       <c r="AMJ55" s="4"/>
     </row>
-    <row r="56" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+    <row r="56" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -6967,8 +7144,8 @@
       <c r="AMI56" s="4"/>
       <c r="AMJ56" s="4"/>
     </row>
-    <row r="57" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+    <row r="57" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -7010,8 +7187,8 @@
       <c r="AMI57" s="4"/>
       <c r="AMJ57" s="4"/>
     </row>
-    <row r="58" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+    <row r="58" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -7053,8 +7230,8 @@
       <c r="AMI58" s="4"/>
       <c r="AMJ58" s="4"/>
     </row>
-    <row r="59" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+    <row r="59" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -7096,8 +7273,8 @@
       <c r="AMI59" s="4"/>
       <c r="AMJ59" s="4"/>
     </row>
-    <row r="60" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+    <row r="60" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -7139,8 +7316,8 @@
       <c r="AMI60" s="4"/>
       <c r="AMJ60" s="4"/>
     </row>
-    <row r="61" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+    <row r="61" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -7182,8 +7359,8 @@
       <c r="AMI61" s="4"/>
       <c r="AMJ61" s="4"/>
     </row>
-    <row r="62" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+    <row r="62" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -7225,8 +7402,8 @@
       <c r="AMI62" s="4"/>
       <c r="AMJ62" s="4"/>
     </row>
-    <row r="63" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+    <row r="63" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -7268,8 +7445,8 @@
       <c r="AMI63" s="4"/>
       <c r="AMJ63" s="4"/>
     </row>
-    <row r="64" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+    <row r="64" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -7311,8 +7488,8 @@
       <c r="AMI64" s="4"/>
       <c r="AMJ64" s="4"/>
     </row>
-    <row r="65" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+    <row r="65" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -7354,8 +7531,8 @@
       <c r="AMI65" s="4"/>
       <c r="AMJ65" s="4"/>
     </row>
-    <row r="66" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+    <row r="66" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>61</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -7397,8 +7574,8 @@
       <c r="AMI66" s="4"/>
       <c r="AMJ66" s="4"/>
     </row>
-    <row r="67" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+    <row r="67" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -7440,8 +7617,8 @@
       <c r="AMI67" s="4"/>
       <c r="AMJ67" s="4"/>
     </row>
-    <row r="68" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+    <row r="68" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -7483,8 +7660,8 @@
       <c r="AMI68" s="4"/>
       <c r="AMJ68" s="4"/>
     </row>
-    <row r="69" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+    <row r="69" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -7526,8 +7703,8 @@
       <c r="AMI69" s="4"/>
       <c r="AMJ69" s="4"/>
     </row>
-    <row r="70" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+    <row r="70" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -7569,8 +7746,8 @@
       <c r="AMI70" s="4"/>
       <c r="AMJ70" s="4"/>
     </row>
-    <row r="71" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+    <row r="71" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>66</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -7612,8 +7789,8 @@
       <c r="AMI71" s="4"/>
       <c r="AMJ71" s="4"/>
     </row>
-    <row r="72" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+    <row r="72" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>67</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -7655,8 +7832,8 @@
       <c r="AMI72" s="4"/>
       <c r="AMJ72" s="4"/>
     </row>
-    <row r="73" s="8" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="n">
+    <row r="73" spans="1:1024" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
         <v>68</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -7698,8 +7875,8 @@
       <c r="AMI73" s="9"/>
       <c r="AMJ73" s="9"/>
     </row>
-    <row r="74" s="8" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="n">
+    <row r="74" spans="1:1024" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
         <v>69</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -7742,44 +7919,36 @@
       <c r="AMJ74" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="1019" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="10.5"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
+    <col min="5" max="1018" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1019" max="1019" width="10.6640625" customWidth="1"/>
+    <col min="1020" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7789,7 +7958,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7799,10 +7968,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -7840,8 +8009,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7878,8 +8047,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -7916,8 +8085,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7954,8 +8123,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7992,8 +8161,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -8030,8 +8199,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -8068,8 +8237,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+    <row r="12" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -8112,8 +8281,8 @@
       <c r="AMI12" s="15"/>
       <c r="AMJ12" s="15"/>
     </row>
-    <row r="13" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+    <row r="13" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -8156,8 +8325,8 @@
       <c r="AMI13" s="15"/>
       <c r="AMJ13" s="15"/>
     </row>
-    <row r="14" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+    <row r="14" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -8200,8 +8369,8 @@
       <c r="AMI14" s="15"/>
       <c r="AMJ14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -8238,8 +8407,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -8276,8 +8445,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -8314,8 +8483,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -8352,8 +8521,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -8390,8 +8559,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -8428,8 +8597,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -8466,8 +8635,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -8504,8 +8673,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -8542,8 +8711,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -8580,8 +8749,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -8618,8 +8787,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -8656,8 +8825,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -8694,8 +8863,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -8732,8 +8901,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -8770,8 +8939,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -8808,8 +8977,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -8846,8 +9015,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -8884,8 +9053,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -8922,8 +9091,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -8960,8 +9129,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -8998,8 +9167,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -9036,8 +9205,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -9074,8 +9243,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -9112,8 +9281,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -9150,8 +9319,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+    <row r="40" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
         <v>40</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -9194,8 +9363,8 @@
       <c r="AMI40" s="15"/>
       <c r="AMJ40" s="15"/>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -9232,8 +9401,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -9271,47 +9440,39 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="8" customWidth="1"/>
+    <col min="12" max="1019" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1020" max="1023" width="10.5" customWidth="1"/>
+    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -9321,7 +9482,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9331,10 +9492,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -9372,8 +9533,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -9407,8 +9568,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -9442,8 +9603,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -9477,8 +9638,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -9515,8 +9676,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -9553,8 +9714,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -9591,8 +9752,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -9629,8 +9790,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9667,8 +9828,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -9705,8 +9866,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -9743,8 +9904,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -9781,8 +9942,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -9819,8 +9980,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -9857,8 +10018,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -9895,8 +10056,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -9933,8 +10094,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -9971,8 +10132,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -10009,8 +10170,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -10047,8 +10208,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -10085,8 +10246,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -10123,8 +10284,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -10161,8 +10322,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -10199,8 +10360,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -10237,8 +10398,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -10275,8 +10436,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -10313,8 +10474,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -10352,43 +10513,35 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="10.5"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="1019" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1020" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -10398,7 +10551,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10408,10 +10561,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -10449,8 +10602,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10462,16 +10615,16 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -10484,8 +10637,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -10497,16 +10650,16 @@
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -10519,8 +10672,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -10532,16 +10685,16 @@
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -10554,8 +10707,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -10567,16 +10720,16 @@
       <c r="D9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -10589,8 +10742,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -10602,16 +10755,16 @@
       <c r="D10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -10624,8 +10777,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -10637,16 +10790,16 @@
       <c r="D11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="20" t="s">
         <v>148</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -10659,8 +10812,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -10672,16 +10825,16 @@
       <c r="D12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -10694,8 +10847,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -10707,16 +10860,16 @@
       <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -10729,8 +10882,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -10742,16 +10895,16 @@
       <c r="D14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="F14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -10764,8 +10917,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -10777,16 +10930,16 @@
       <c r="D15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="E15" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -10799,8 +10952,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -10812,17 +10965,17 @@
       <c r="D16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>20</v>
+      <c r="F16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>37</v>
@@ -10835,45 +10988,37 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMJ29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="10.5"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="1019" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1020" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -10883,7 +11028,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10893,10 +11038,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -10934,8 +11079,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10972,8 +11117,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -11010,8 +11155,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -11048,8 +11193,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -11086,8 +11231,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -11124,8 +11269,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -11162,8 +11307,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -11200,8 +11345,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -11238,8 +11383,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -11276,8 +11421,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -11314,8 +11459,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -11352,8 +11497,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -11390,8 +11535,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -11428,8 +11573,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -11466,8 +11611,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -11504,8 +11649,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -11542,8 +11687,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -11580,8 +11725,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -11618,8 +11763,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -11656,8 +11801,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -11692,8 +11837,8 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -11728,8 +11873,8 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -11764,8 +11909,8 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -11800,8 +11945,8 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -11836,51 +11981,42 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="10.5"/>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
+    <col min="13" max="1019" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1020" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -11890,7 +12026,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11900,7 +12036,7 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -11938,8 +12074,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11976,8 +12112,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -12011,8 +12147,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -12046,8 +12182,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -12081,8 +12217,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -12119,8 +12255,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -12157,8 +12293,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -12193,8 +12329,8 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -12229,8 +12365,8 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -12265,8 +12401,8 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -12301,8 +12437,8 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -12338,12 +12474,7 @@
       <c r="L16" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gutierjm/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804396AF-4F14-B248-8869-B5528E13E399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20680" windowHeight="12660" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="1.SAM-final" sheetId="1" r:id="rId1"/>
-    <sheet name="2.CAM-final" sheetId="2" r:id="rId2"/>
-    <sheet name="3.NAM-final" sheetId="3" r:id="rId3"/>
-    <sheet name="4.EUR" sheetId="4" r:id="rId4"/>
-    <sheet name="5.AFR" sheetId="5" r:id="rId5"/>
-    <sheet name="6.WAS-final" sheetId="6" r:id="rId6"/>
-    <sheet name="7.EAS-final" sheetId="7" r:id="rId7"/>
-    <sheet name="9.AUS" sheetId="8" r:id="rId8"/>
-    <sheet name="10.ANT" sheetId="9" r:id="rId9"/>
-    <sheet name="11.ARC-final" sheetId="10" r:id="rId10"/>
-    <sheet name="14.SEA" sheetId="11" r:id="rId11"/>
+    <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2.CAM-final" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="3.NAM-final" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="4.EUR" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="5.AFR" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="6.WAS-final" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="7.EAS-final" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="9.AUS" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="10.ANT" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="11.ARC-final" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="14.SEA" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -35,655 +30,649 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="211">
   <si>
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
   <si>
-    <t>(*) Details on registered RCMs at https://github.com/IS-ENES-Data/cordex/blob/master/CORDEX_register.xlsx; see also http://is-enes-data.github.io/CORDEX_RCMs_info.html</t>
-  </si>
-  <si>
-    <t>Based on the CORDEX inventory by Dec-2020, https://cordex.org/data-access/regional-climate-change-simulations-for-cordex-domains/</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>GCM_run</t>
-  </si>
-  <si>
-    <t>RCM</t>
-  </si>
-  <si>
-    <t>Historical</t>
-  </si>
-  <si>
-    <t>RCP2.6</t>
-  </si>
-  <si>
-    <t>RCP4.5</t>
-  </si>
-  <si>
-    <t>RCP8.5</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Access (1)</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>SAM-20</t>
-  </si>
-  <si>
-    <t>CanESM2_r1i1p1</t>
-  </si>
-  <si>
-    <t>Eta_v1</t>
-  </si>
-  <si>
-    <t>1961-2005</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2006-2099</t>
-  </si>
-  <si>
-    <t>INPE</t>
-  </si>
-  <si>
-    <t>ESGF</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>Smaller domain (not fully covering SSA)</t>
-  </si>
-  <si>
-    <t>MIROC5_r1i1p1</t>
-  </si>
-  <si>
-    <t>DOI:10.4236/ajcc.2014.35043</t>
-  </si>
-  <si>
-    <t>HadGEM2-ES_r1i1p1</t>
-  </si>
-  <si>
-    <t>SAM-22</t>
-  </si>
-  <si>
-    <t>REMO2015_v1</t>
-  </si>
-  <si>
-    <t>1970-2005</t>
-  </si>
-  <si>
-    <t>GERICS</t>
+    <t xml:space="preserve">(*) Details on registered RCMs at https://github.com/IS-ENES-Data/cordex/blob/master/CORDEX_register.xlsx; see also http://is-enes-data.github.io/CORDEX_RCMs_info.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the CORDEX inventory by Dec-2020, https://cordex.org/data-access/regional-climate-change-simulations-for-cordex-domains/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM_run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCP2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCP4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCP8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanESM2_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eta_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1961-2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-2099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smaller domain (not fully covering SSA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIROC5_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.4236/ajcc.2014.35043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HadGEM2-ES_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMO2015_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1970-2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERICS</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>MPI-ESM-LR_r1i1p1</t>
-  </si>
-  <si>
-    <t>2006-2100</t>
-  </si>
-  <si>
-    <t>NorESM1-M_r1i1p1</t>
-  </si>
-  <si>
-    <t>RegCM4-7_v0</t>
-  </si>
-  <si>
-    <t>ICTP</t>
-  </si>
-  <si>
-    <t>MPI-ESM-MR_r1i1p1</t>
-  </si>
-  <si>
-    <t>SAM-44</t>
-  </si>
-  <si>
-    <t>RegCM4-3_v4</t>
-  </si>
-  <si>
-    <t>2005-2099</t>
-  </si>
-  <si>
-    <t>GFDL-ESM2M_r1i1p1</t>
-  </si>
-  <si>
-    <t>REMO2009_v1</t>
-  </si>
-  <si>
-    <t>1950-2005</t>
-  </si>
-  <si>
-    <t>MPI-CSC</t>
-  </si>
-  <si>
-    <t>CSIRO-Mk3-6-0_r1i1p1</t>
-  </si>
-  <si>
-    <t>RCA4_v3</t>
-  </si>
-  <si>
-    <t>1951-2005</t>
-  </si>
-  <si>
-    <t>SMHI</t>
-  </si>
-  <si>
-    <t>EC-EARTH_r12i1p1</t>
-  </si>
-  <si>
-    <t>IPSL-CM5A-MR_r1i1p1</t>
-  </si>
-  <si>
-    <t>WRF341I_v2</t>
-  </si>
-  <si>
-    <t>UCAN</t>
+    <t xml:space="preserve">MPI-ESM-LR_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NorESM1-M_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegCM4-7_v0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI-ESM-MR_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegCM4-3_v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-2099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFDL-ESM2M_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMO2009_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1950-2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI-CSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSIRO-Mk3-6-0_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCA4_v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1951-2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-EARTH_r12i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPSL-CM5A-MR_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF341I_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCAN</t>
   </si>
   <si>
     <t xml:space="preserve">2: Central America (CAM): https://cordex.org/domains/cordex-region-central-america-cordex/ </t>
   </si>
   <si>
-    <t>CAM-22</t>
-  </si>
-  <si>
-    <t>CRCM5_v1</t>
-  </si>
-  <si>
-    <t>OURANOS</t>
-  </si>
-  <si>
-    <t>CAM-44</t>
-  </si>
-  <si>
-    <t>RCA4_v1</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6276</t>
-  </si>
-  <si>
-    <t>CNRM-CM5_r1i1p1</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6277</t>
-  </si>
-  <si>
-    <t>Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6278</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6280</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6281</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6282</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6283</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6284</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6285</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/joc.6286</t>
-  </si>
-  <si>
-    <t>CAM-22/44</t>
+    <t xml:space="preserve">CAM-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCM5_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OURANOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCA4_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNRM-CM5_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/joc.6286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM-22/44</t>
   </si>
   <si>
     <t xml:space="preserve">3: North America (NAM): https://cordex.org/domains/region1-north-america/ </t>
   </si>
   <si>
-    <t>NAM-22</t>
-  </si>
-  <si>
-    <t>With spectral nudging</t>
-  </si>
-  <si>
-    <t>With spectral nudging; Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
-  </si>
-  <si>
-    <t>NAM-44</t>
-  </si>
-  <si>
-    <t>EC-EARTH_r3i1p1</t>
-  </si>
-  <si>
-    <t>HIRHAM5_v1</t>
-  </si>
-  <si>
-    <t>DMI</t>
-  </si>
-  <si>
-    <t>NAM-22/44</t>
-  </si>
-  <si>
-    <t>CanRCM4_r2</t>
-  </si>
-  <si>
-    <t>CCCma</t>
-  </si>
-  <si>
-    <t>DOI:10.5065/D6SJ1JCH</t>
-  </si>
-  <si>
-    <t>1949-2005</t>
-  </si>
-  <si>
-    <t>UQAM</t>
-  </si>
-  <si>
-    <t>ESM2M_r1i1p1</t>
-  </si>
-  <si>
-    <t>RegCM4_v4-4-rc8</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>NCAR</t>
-  </si>
-  <si>
-    <t>WRF_v3-5-1</t>
-  </si>
-  <si>
-    <t>UA</t>
+    <t xml:space="preserve">NAM-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With spectral nudging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With spectral nudging; Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAM-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-EARTH_r3i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIRHAM5_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAM-22/44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanRCM4_r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCCma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.5065/D6SJ1JCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1949-2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESM2M_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegCM4_v4-4-rc8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF_v3-5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
   </si>
   <si>
     <t xml:space="preserve">4: Europe (EUR): https://cordex.org/domains/cordex-region-euro-cordex/ </t>
   </si>
   <si>
-    <t>EUR-11</t>
-  </si>
-  <si>
-    <t>COSMO-crCLIM-v1-1_v1</t>
-  </si>
-  <si>
-    <t>CLMcom-ETH</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/2016JD026014</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/2016JD026015</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/2016JD026016</t>
-  </si>
-  <si>
-    <t>MPI-ESM-LR_r2i1p1</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/2016JD026017</t>
-  </si>
-  <si>
-    <t>MPI-ESM-LR_r3i1p1</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/2016JD026018</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/2016JD026019</t>
-  </si>
-  <si>
-    <t>CCLM4-8-17_v1</t>
-  </si>
-  <si>
-    <t>CLMcom</t>
-  </si>
-  <si>
-    <t>Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
-  </si>
-  <si>
-    <t>CLMcom-BTU</t>
-  </si>
-  <si>
-    <t>CanESM2</t>
-  </si>
-  <si>
-    <t>ALADIN53_v1</t>
-  </si>
-  <si>
-    <t>CNRM</t>
-  </si>
-  <si>
-    <t>DOI:10.1111/j.1600-0870.2010.00467.x</t>
-  </si>
-  <si>
-    <t>ALADIN63_v2</t>
-  </si>
-  <si>
-    <t>DOI:10.5194/acp-20-8315-2020</t>
-  </si>
-  <si>
-    <t>ALADIN63_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CNRM</t>
-  </si>
-  <si>
-    <t>HIRHAM5_v2</t>
-  </si>
-  <si>
-    <t>EC-EARTH_r1i1p1</t>
-  </si>
-  <si>
-    <t>HIRHAM5_v3</t>
-  </si>
-  <si>
-    <t>IPSL-CM5A-LR_r1i1p1</t>
-  </si>
-  <si>
-    <t>1948-2005</t>
-  </si>
-  <si>
-    <t>GFDL-ESM2G_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNRM-CM5 </t>
-  </si>
-  <si>
-    <t>REMO2015_v2</t>
+    <t xml:space="preserve">EUR-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSMO-crCLIM-v1-1_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLMcom-ETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/2016JD026014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/2016JD026015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/2016JD026016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI-ESM-LR_r2i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/2016JD026017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI-ESM-LR_r3i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/2016JD026018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/2016JD026019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCLM4-8-17_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLMcom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALADIN53_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1111/j.1600-0870.2010.00467.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALADIN63_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.5194/acp-20-8315-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALADIN63_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIRHAM5_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-EARTH_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIRHAM5_v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPSL-CM5A-LR_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1948-2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFDL-ESM2G_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNRM-CM5_r1i1p1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMO2015_v2</t>
   </si>
   <si>
     <t xml:space="preserve"> 1950-2005</t>
   </si>
   <si>
-    <t>RegCM4-6_v1</t>
-  </si>
-  <si>
-    <t>2005-2100</t>
-  </si>
-  <si>
-    <t>WRF381P_v2</t>
-  </si>
-  <si>
-    <t>IPSL</t>
-  </si>
-  <si>
-    <t>WRF381P_v1</t>
-  </si>
-  <si>
-    <t>WRF361H_v1</t>
-  </si>
-  <si>
-    <t>UHOH</t>
-  </si>
-  <si>
-    <t>RACMO22E_v2</t>
-  </si>
-  <si>
-    <t>KNMI</t>
-  </si>
-  <si>
-    <t>RACMO22E_v1</t>
-  </si>
-  <si>
-    <t>HadREM3-GA7-05_v1</t>
-  </si>
-  <si>
-    <t>MOHC</t>
-  </si>
-  <si>
-    <t>DOI:10.5194/gmd-12-1909-2020</t>
-  </si>
-  <si>
-    <t>DOI:10.5194/gmd-12-1909-2021</t>
-  </si>
-  <si>
-    <t>DOI:10.5194/gmd-12-1909-2019</t>
-  </si>
-  <si>
-    <t>DOI:10.1007/s10113-014-0587-y; DOI:10.1007/s10113-013-0499-2</t>
-  </si>
-  <si>
-    <t>ALARO-0_v1</t>
-  </si>
-  <si>
-    <t>RMIB-UGent</t>
-  </si>
-  <si>
-    <t>RCA4_v1a</t>
+    <t xml:space="preserve">RegCM4-6_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF381P_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF381P_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF361H_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UHOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACMO22E_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACMO22E_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HadREM3-GA7-05_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.5194/gmd-12-1909-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.5194/gmd-12-1909-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.5194/gmd-12-1909-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1007/s10113-014-0587-y; DOI:10.1007/s10113-013-0499-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALARO-0_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMIB-UGent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCA4_v1a</t>
   </si>
   <si>
     <t xml:space="preserve">5: Africa (AFR): https://cordex.org/domains/region-5-africa/ </t>
   </si>
   <si>
-    <t>AFR-22</t>
-  </si>
-  <si>
-    <t>CCLM5-0-15_v1</t>
-  </si>
-  <si>
-    <t>2006-2098</t>
-  </si>
-  <si>
-    <t>CLMcom-KIT</t>
-  </si>
-  <si>
-    <t>2005-2063</t>
-  </si>
-  <si>
-    <t>2005-2073</t>
-  </si>
-  <si>
-    <t>AFR-44</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/2017EF000714</t>
-  </si>
-  <si>
-    <t>RACMO22T_v1</t>
-  </si>
-  <si>
-    <t>RACMO22T_v2</t>
-  </si>
-  <si>
-    <t>AFR-22/44</t>
+    <t xml:space="preserve">AFR-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCLM5-0-15_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-2098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLMcom-KIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-2063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-2073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFR-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/2017EF000714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACMO22T_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACMO22T_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFR-22/44</t>
   </si>
   <si>
     <t xml:space="preserve">6: South Asia (WAS): https://cordex.org/domains/region-6-south-asia-2/ </t>
   </si>
   <si>
-    <t>WAS-22</t>
-  </si>
-  <si>
-    <t>2006-2009</t>
-  </si>
-  <si>
-    <t>DOI:10.1002/2016JD026013</t>
-  </si>
-  <si>
-    <t>ORNL</t>
-  </si>
-  <si>
-    <t>In ESGF the model is labelled "ICTP-ReGCM4-7" and should "ORNL-RegCM4-7"</t>
-  </si>
-  <si>
-    <t>WAS-44</t>
-  </si>
-  <si>
-    <t>RegCM4-4_v5</t>
-  </si>
-  <si>
-    <t>IITM</t>
-  </si>
-  <si>
-    <t>2006-2085</t>
-  </si>
-  <si>
-    <t>DOI:10.3390/atmos4020214</t>
-  </si>
-  <si>
-    <t>RCA4_v2</t>
+    <t xml:space="preserve">WAS-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1002/2016JD026013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In ESGF the model is labelled "ICTP-ReGCM4-7" and should "ORNL-RegCM4-7"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAS-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegCM4-4_v5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IITM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-2085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.3390/atmos4020214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCA4_v2</t>
   </si>
   <si>
     <t xml:space="preserve">7: East Asia (EAS): https://cordex.org/domains/region-7-east-asia/ </t>
   </si>
   <si>
-    <t>EAS-22</t>
-  </si>
-  <si>
-    <t>EAS-44</t>
-  </si>
-  <si>
-    <t>CCLM5-0-2_v1</t>
-  </si>
-  <si>
-    <t>RegCM4-4_v0</t>
+    <t xml:space="preserve">EAS-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAS-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCLM5-0-2_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegCM4-4_v0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1980-2005</t>
   </si>
   <si>
     <t xml:space="preserve">9: Australasia (AUS): https://cordex.org/domains/region-9-australasia/ </t>
   </si>
   <si>
-    <t>AUS-22</t>
-  </si>
-  <si>
-    <t>AUS-44</t>
-  </si>
-  <si>
-    <t>CCLM4-8-17-CLM3-5_v1</t>
-  </si>
-  <si>
-    <t>ACCESS1-0_r1i1p1</t>
-  </si>
-  <si>
-    <t>WRF360L_v1</t>
-  </si>
-  <si>
-    <t>UNSW</t>
-  </si>
-  <si>
-    <t>ACCESS1-3_r1i1p1</t>
-  </si>
-  <si>
-    <t>CLMcom-HZG</t>
-  </si>
-  <si>
-    <t>WRF360J_v1</t>
-  </si>
-  <si>
-    <t>WRF360K_v1</t>
-  </si>
-  <si>
-    <t>AUS-44i</t>
-  </si>
-  <si>
-    <t>CCAM-2008_v1</t>
-  </si>
-  <si>
-    <t>1960-2005</t>
-  </si>
-  <si>
-    <t>CSIRO</t>
+    <t xml:space="preserve">AUS-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCLM4-8-17-CLM3-5_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCESS1-0_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF360L_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCESS1-3_r1i1p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLMcom-HZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF360J_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF360K_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS-44i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAM-2008_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1960-2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSIRO</t>
   </si>
   <si>
     <t xml:space="preserve">10: Antarctica (ANT): https://cordex.org/domains/region-10-antarctica/ </t>
   </si>
   <si>
-    <t>ANT-44</t>
-  </si>
-  <si>
-    <t>RACMO21P_v1</t>
-  </si>
-  <si>
-    <t>RACMO21P_v2</t>
-  </si>
-  <si>
-    <t>MAR311_v1</t>
-  </si>
-  <si>
-    <t>1980-2005</t>
-  </si>
-  <si>
-    <t>Ulg</t>
-  </si>
-  <si>
-    <t>DOI:10.5194/tc-2020-291</t>
-  </si>
-  <si>
-    <t>Antarctica 35 km stereosouth projection</t>
-  </si>
-  <si>
-    <t>ANT-44i</t>
+    <t xml:space="preserve">ANT-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACMO21P_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACMO21P_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR311_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.5194/tc-2020-291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctica 35 km stereosouth projection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANT-44i</t>
   </si>
   <si>
     <t xml:space="preserve">11: Arctic (ARC): https://cordex.org/domains/region-11-arctic/  </t>
   </si>
   <si>
-    <t>ARC-44</t>
-  </si>
-  <si>
-    <t>RRCM_v1</t>
-  </si>
-  <si>
-    <t>MGO</t>
-  </si>
-  <si>
-    <t>RCA4-SN_v1</t>
-  </si>
-  <si>
-    <t>ARC-22/44</t>
-  </si>
-  <si>
-    <t>DOI:10.1175/JCLI-D-15-0161.1</t>
-  </si>
-  <si>
-    <t>DOI:10.1007/s00382-017-3912-6</t>
+    <t xml:space="preserve">ARC-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRCM_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCA4-SN_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARC-22/44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1175/JCLI-D-15-0161.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1007/s00382-017-3912-6</t>
   </si>
   <si>
     <t xml:space="preserve">14: South-East Asia (SEA): https://cordex.org/domains/region-14-south-east-asia-sea/ </t>
   </si>
   <si>
-    <t>SEA-22</t>
-  </si>
-  <si>
-    <t>RU-CORE</t>
-  </si>
-  <si>
-    <t>DOI:10.1007/s00382-020-05322-2</t>
-  </si>
-  <si>
-    <t>In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang)</t>
-  </si>
-  <si>
-    <t>In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang). Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php . Only historical and rcp45 experiments are available on ESGF for a few variables</t>
-  </si>
-  <si>
-    <t>2006-2069</t>
+    <t xml:space="preserve">SEA-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU-CORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI:10.1007/s00382-020-05322-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang). Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php . Only historical and rcp45 experiments are available on ESGF for a few variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-2069</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -692,7 +681,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -713,7 +717,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -741,7 +745,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -749,43 +753,121 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -844,350 +926,42 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30" style="1" customWidth="1"/>
-    <col min="13" max="1019" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1020" max="1023" width="10.5" customWidth="1"/>
-    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1197,7 +971,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1207,8 +981,8 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1246,8 +1020,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1284,8 +1058,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1322,8 +1096,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1360,8 +1134,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1398,8 +1172,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1436,8 +1210,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1474,8 +1248,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1512,8 +1286,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1550,8 +1324,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1588,8 +1362,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1626,8 +1400,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1664,8 +1438,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1702,8 +1476,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1740,8 +1514,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1778,8 +1552,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1816,8 +1590,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1854,8 +1628,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1892,8 +1666,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1930,8 +1704,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1968,8 +1742,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2006,8 +1780,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2044,8 +1818,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2083,39 +1857,47 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
-    <col min="13" max="1019" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1020" max="1023" width="10.5" customWidth="1"/>
-    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2125,7 +1907,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +1917,7 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2173,12 +1955,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -2211,18 +1993,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -2237,7 +2019,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -2249,12 +2031,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -2287,18 +2069,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>48</v>
@@ -2325,12 +2107,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -2363,18 +2145,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>48</v>
@@ -2401,12 +2183,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2439,12 +2221,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -2477,12 +2259,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -2509,18 +2291,18 @@
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -2547,18 +2329,18 @@
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2585,45 +2367,53 @@
         <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="8" customWidth="1"/>
-    <col min="12" max="1019" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1020" max="1023" width="10.5" customWidth="1"/>
-    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2633,7 +2423,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2643,7 +2433,7 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="5" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2681,12 +2471,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -2713,12 +2503,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -2745,12 +2535,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -2777,15 +2567,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
@@ -2803,27 +2593,27 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>40</v>
@@ -2841,21 +2631,21 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -2876,24 +2666,24 @@
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>42</v>
@@ -2914,13 +2704,13 @@
         <v>20</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AMF12" s="15"/>
       <c r="AMG12" s="15"/>
@@ -2928,12 +2718,12 @@
       <c r="AMI12" s="15"/>
       <c r="AMJ12" s="15"/>
     </row>
-    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -2960,18 +2750,18 @@
         <v>22</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>61</v>
@@ -2992,24 +2782,24 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -3024,30 +2814,30 @@
         <v>19</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -3074,12 +2864,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
@@ -3106,12 +2896,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -3139,36 +2929,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="1019" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1020" max="1023" width="10.5" customWidth="1"/>
-    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3178,7 +2976,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3188,10 +2986,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3027,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3267,8 +3065,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3305,8 +3103,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3343,8 +3141,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3381,8 +3179,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3419,8 +3217,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3457,8 +3255,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3493,8 +3291,8 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3531,8 +3329,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3569,8 +3367,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3607,8 +3405,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3645,8 +3443,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3683,8 +3481,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3721,8 +3519,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3759,8 +3557,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3797,8 +3595,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3835,8 +3633,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3873,8 +3671,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3911,8 +3709,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3949,8 +3747,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -3987,8 +3785,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -4023,38 +3821,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="1" customWidth="1"/>
-    <col min="12" max="1017" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1018" max="1023" width="10.5" customWidth="1"/>
-    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="12" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1018" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4064,7 +3870,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4074,7 +3880,7 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -4112,8 +3918,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4148,8 +3954,8 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4184,8 +3990,8 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4220,8 +4026,8 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4258,8 +4064,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4297,8 +4103,8 @@
       </c>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4335,8 +4141,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4373,8 +4179,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4411,8 +4217,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4449,8 +4255,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4487,8 +4293,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4525,8 +4331,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4563,8 +4369,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4601,8 +4407,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4639,8 +4445,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4677,8 +4483,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4715,8 +4521,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4753,8 +4559,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4791,8 +4597,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4827,8 +4633,8 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4864,38 +4670,46 @@
       <c r="L25" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMK74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="13" customWidth="1"/>
-    <col min="5" max="8" width="10.6640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="12" style="13" customWidth="1"/>
-    <col min="11" max="1019" width="10.6640625" style="13" customWidth="1"/>
-    <col min="1020" max="1025" width="8.83203125" style="15" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="4.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="13" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="13" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="13" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="13" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="15" width="8.84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4905,7 +4719,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4915,14 +4729,14 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMF4" s="4"/>
       <c r="AMG4" s="4"/>
       <c r="AMH4" s="4"/>
       <c r="AMI4" s="4"/>
       <c r="AMJ4" s="4"/>
     </row>
-    <row r="5" spans="1:1024" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -4960,8 +4774,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -5003,8 +4817,8 @@
       <c r="AMI6" s="4"/>
       <c r="AMJ6" s="4"/>
     </row>
-    <row r="7" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -5046,8 +4860,8 @@
       <c r="AMI7" s="4"/>
       <c r="AMJ7" s="4"/>
     </row>
-    <row r="8" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -5089,8 +4903,8 @@
       <c r="AMI8" s="4"/>
       <c r="AMJ8" s="4"/>
     </row>
-    <row r="9" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -5132,8 +4946,8 @@
       <c r="AMI9" s="4"/>
       <c r="AMJ9" s="4"/>
     </row>
-    <row r="10" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -5175,8 +4989,8 @@
       <c r="AMI10" s="4"/>
       <c r="AMJ10" s="4"/>
     </row>
-    <row r="11" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -5218,8 +5032,8 @@
       <c r="AMI11" s="4"/>
       <c r="AMJ11" s="4"/>
     </row>
-    <row r="12" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -5261,8 +5075,8 @@
       <c r="AMI12" s="4"/>
       <c r="AMJ12" s="4"/>
     </row>
-    <row r="13" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -5304,8 +5118,8 @@
       <c r="AMI13" s="4"/>
       <c r="AMJ13" s="4"/>
     </row>
-    <row r="14" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5347,8 +5161,8 @@
       <c r="AMI14" s="4"/>
       <c r="AMJ14" s="4"/>
     </row>
-    <row r="15" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -5390,8 +5204,8 @@
       <c r="AMI15" s="4"/>
       <c r="AMJ15" s="4"/>
     </row>
-    <row r="16" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -5416,7 +5230,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>22</v>
@@ -5433,42 +5247,42 @@
       <c r="AMI16" s="4"/>
       <c r="AMJ16" s="4"/>
     </row>
-    <row r="17" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="J17" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="AMF17" s="4"/>
       <c r="AMG17" s="4"/>
@@ -5476,8 +5290,8 @@
       <c r="AMI17" s="4"/>
       <c r="AMJ17" s="4"/>
     </row>
-    <row r="18" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -5487,10 +5301,10 @@
         <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>34</v>
@@ -5502,16 +5316,13 @@
         <v>34</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="AMF18" s="4"/>
       <c r="AMG18" s="4"/>
@@ -5519,15 +5330,15 @@
       <c r="AMI18" s="4"/>
       <c r="AMJ18" s="4"/>
     </row>
-    <row r="19" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>113</v>
@@ -5535,23 +5346,26 @@
       <c r="E19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>34</v>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="AMF19" s="4"/>
       <c r="AMG19" s="4"/>
@@ -5559,18 +5373,18 @@
       <c r="AMI19" s="4"/>
       <c r="AMJ19" s="4"/>
     </row>
-    <row r="20" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>48</v>
@@ -5582,16 +5396,16 @@
         <v>19</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>32</v>
@@ -5602,18 +5416,18 @@
       <c r="AMI20" s="4"/>
       <c r="AMJ20" s="4"/>
     </row>
-    <row r="21" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>48</v>
@@ -5628,13 +5442,13 @@
         <v>34</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>32</v>
@@ -5645,18 +5459,18 @@
       <c r="AMI21" s="4"/>
       <c r="AMJ21" s="4"/>
     </row>
-    <row r="22" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>48</v>
@@ -5671,16 +5485,13 @@
         <v>34</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AMF22" s="4"/>
       <c r="AMG22" s="4"/>
@@ -5688,18 +5499,18 @@
       <c r="AMI22" s="4"/>
       <c r="AMJ22" s="4"/>
     </row>
-    <row r="23" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>48</v>
@@ -5721,6 +5532,9 @@
       </c>
       <c r="K23" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="AMF23" s="4"/>
       <c r="AMG23" s="4"/>
@@ -5728,15 +5542,15 @@
       <c r="AMI23" s="4"/>
       <c r="AMJ23" s="4"/>
     </row>
-    <row r="24" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>79</v>
@@ -5771,27 +5585,27 @@
       <c r="AMI24" s="4"/>
       <c r="AMJ24" s="4"/>
     </row>
-    <row r="25" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>19</v>
+      <c r="F25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>34</v>
@@ -5814,30 +5628,30 @@
       <c r="AMI25" s="4"/>
       <c r="AMJ25" s="4"/>
     </row>
-    <row r="26" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>34</v>
+      <c r="F26" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>80</v>
@@ -5857,18 +5671,18 @@
       <c r="AMI26" s="4"/>
       <c r="AMJ26" s="4"/>
     </row>
-    <row r="27" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>48</v>
@@ -5876,11 +5690,11 @@
       <c r="F27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>20</v>
+      <c r="G27" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>80</v>
@@ -5900,18 +5714,18 @@
       <c r="AMI27" s="4"/>
       <c r="AMJ27" s="4"/>
     </row>
-    <row r="28" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>48</v>
@@ -5919,8 +5733,8 @@
       <c r="F28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>19</v>
+      <c r="G28" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>34</v>
@@ -5943,24 +5757,24 @@
       <c r="AMI28" s="4"/>
       <c r="AMJ28" s="4"/>
     </row>
-    <row r="29" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>34</v>
@@ -5969,7 +5783,7 @@
         <v>34</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>22</v>
@@ -5986,30 +5800,30 @@
       <c r="AMI29" s="4"/>
       <c r="AMJ29" s="4"/>
     </row>
-    <row r="30" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>34</v>
+      <c r="G30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>31</v>
@@ -6029,30 +5843,30 @@
       <c r="AMI30" s="4"/>
       <c r="AMJ30" s="4"/>
     </row>
-    <row r="31" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>19</v>
+      <c r="H31" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>31</v>
@@ -6072,15 +5886,15 @@
       <c r="AMI31" s="4"/>
       <c r="AMJ31" s="4"/>
     </row>
-    <row r="32" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>29</v>
@@ -6088,8 +5902,8 @@
       <c r="E32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>19</v>
+      <c r="F32" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>19</v>
@@ -6115,15 +5929,15 @@
       <c r="AMI32" s="4"/>
       <c r="AMJ32" s="4"/>
     </row>
-    <row r="33" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    <row r="33" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>29</v>
@@ -6132,13 +5946,13 @@
         <v>44</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>31</v>
@@ -6158,15 +5972,15 @@
       <c r="AMI33" s="4"/>
       <c r="AMJ33" s="4"/>
     </row>
-    <row r="34" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>29</v>
@@ -6174,14 +5988,14 @@
       <c r="E34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>20</v>
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>31</v>
@@ -6201,15 +6015,15 @@
       <c r="AMI34" s="4"/>
       <c r="AMJ34" s="4"/>
     </row>
-    <row r="35" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    <row r="35" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>29</v>
@@ -6217,11 +6031,11 @@
       <c r="E35" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>19</v>
+      <c r="F35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>34</v>
@@ -6244,30 +6058,30 @@
       <c r="AMI35" s="4"/>
       <c r="AMJ35" s="4"/>
     </row>
-    <row r="36" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>34</v>
+      <c r="G36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>31</v>
@@ -6287,30 +6101,30 @@
       <c r="AMI36" s="4"/>
       <c r="AMJ36" s="4"/>
     </row>
-    <row r="37" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="F37" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>19</v>
+      <c r="H37" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>31</v>
@@ -6322,7 +6136,7 @@
         <v>23</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="AMF37" s="4"/>
       <c r="AMG37" s="4"/>
@@ -6330,33 +6144,33 @@
       <c r="AMI37" s="4"/>
       <c r="AMJ37" s="4"/>
     </row>
-    <row r="38" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    <row r="38" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J38" s="18" t="s">
         <v>22</v>
@@ -6373,25 +6187,25 @@
       <c r="AMI38" s="4"/>
       <c r="AMJ38" s="4"/>
     </row>
-    <row r="39" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="G39" s="3" t="s">
         <v>19</v>
       </c>
@@ -6399,7 +6213,7 @@
         <v>34</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J39" s="18" t="s">
         <v>22</v>
@@ -6408,7 +6222,7 @@
         <v>23</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="AMF39" s="4"/>
       <c r="AMG39" s="4"/>
@@ -6416,24 +6230,24 @@
       <c r="AMI39" s="4"/>
       <c r="AMJ39" s="4"/>
     </row>
-    <row r="40" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>41</v>
+      <c r="F40" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>19</v>
@@ -6459,42 +6273,39 @@
       <c r="AMI40" s="4"/>
       <c r="AMJ40" s="4"/>
     </row>
-    <row r="41" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J41" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="AMF41" s="4"/>
       <c r="AMG41" s="4"/>
@@ -6502,33 +6313,33 @@
       <c r="AMI41" s="4"/>
       <c r="AMJ41" s="4"/>
     </row>
-    <row r="42" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J42" s="18" t="s">
         <v>22</v>
@@ -6545,18 +6356,18 @@
       <c r="AMI42" s="4"/>
       <c r="AMJ42" s="4"/>
     </row>
-    <row r="43" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
         <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>48</v>
@@ -6568,16 +6379,19 @@
         <v>19</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J43" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="AMF43" s="4"/>
       <c r="AMG43" s="4"/>
@@ -6585,18 +6399,18 @@
       <c r="AMI43" s="4"/>
       <c r="AMJ43" s="4"/>
     </row>
-    <row r="44" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    <row r="44" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
         <v>39</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>48</v>
@@ -6604,14 +6418,14 @@
       <c r="F44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>34</v>
+      <c r="G44" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J44" s="18" t="s">
         <v>22</v>
@@ -6628,30 +6442,30 @@
       <c r="AMI44" s="4"/>
       <c r="AMJ44" s="4"/>
     </row>
-    <row r="45" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="45" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
         <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>129</v>
@@ -6671,33 +6485,33 @@
       <c r="AMI45" s="4"/>
       <c r="AMJ45" s="4"/>
     </row>
-    <row r="46" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    <row r="46" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
         <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J46" s="18" t="s">
         <v>22</v>
@@ -6706,7 +6520,7 @@
         <v>23</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="AMF46" s="4"/>
       <c r="AMG46" s="4"/>
@@ -6714,33 +6528,33 @@
       <c r="AMI46" s="4"/>
       <c r="AMJ46" s="4"/>
     </row>
-    <row r="47" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="47" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
         <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="J47" s="18" t="s">
         <v>22</v>
@@ -6757,24 +6571,24 @@
       <c r="AMI47" s="4"/>
       <c r="AMJ47" s="4"/>
     </row>
-    <row r="48" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+    <row r="48" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>34</v>
+      <c r="F48" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>34</v>
@@ -6783,7 +6597,7 @@
         <v>34</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J48" s="18" t="s">
         <v>22</v>
@@ -6792,7 +6606,7 @@
         <v>23</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="AMF48" s="4"/>
       <c r="AMG48" s="4"/>
@@ -6800,33 +6614,33 @@
       <c r="AMI48" s="4"/>
       <c r="AMJ48" s="4"/>
     </row>
-    <row r="49" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+    <row r="49" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>34</v>
+      <c r="F49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J49" s="18" t="s">
         <v>22</v>
@@ -6843,33 +6657,33 @@
       <c r="AMI49" s="4"/>
       <c r="AMJ49" s="4"/>
     </row>
-    <row r="50" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    <row r="50" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="18" t="s">
-        <v>34</v>
+      <c r="G50" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J50" s="18" t="s">
         <v>22</v>
@@ -6886,33 +6700,33 @@
       <c r="AMI50" s="4"/>
       <c r="AMJ50" s="4"/>
     </row>
-    <row r="51" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
         <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>19</v>
+      <c r="F51" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J51" s="18" t="s">
         <v>22</v>
@@ -6929,24 +6743,24 @@
       <c r="AMI51" s="4"/>
       <c r="AMJ51" s="4"/>
     </row>
-    <row r="52" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+    <row r="52" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
         <v>47</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>19</v>
@@ -6955,7 +6769,7 @@
         <v>34</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J52" s="18" t="s">
         <v>22</v>
@@ -6972,33 +6786,33 @@
       <c r="AMI52" s="4"/>
       <c r="AMJ52" s="4"/>
     </row>
-    <row r="53" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="53" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
         <v>48</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J53" s="18" t="s">
         <v>22</v>
@@ -7015,30 +6829,30 @@
       <c r="AMI53" s="4"/>
       <c r="AMJ53" s="4"/>
     </row>
-    <row r="54" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+    <row r="54" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
         <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>134</v>
@@ -7047,7 +6861,7 @@
         <v>22</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>32</v>
@@ -7058,30 +6872,30 @@
       <c r="AMI54" s="4"/>
       <c r="AMJ54" s="4"/>
     </row>
-    <row r="55" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="55" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
         <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>134</v>
@@ -7090,7 +6904,7 @@
         <v>22</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>32</v>
@@ -7101,18 +6915,18 @@
       <c r="AMI55" s="4"/>
       <c r="AMJ55" s="4"/>
     </row>
-    <row r="56" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+    <row r="56" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>48</v>
@@ -7124,16 +6938,16 @@
         <v>19</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>32</v>
@@ -7144,18 +6958,18 @@
       <c r="AMI56" s="4"/>
       <c r="AMJ56" s="4"/>
     </row>
-    <row r="57" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+    <row r="57" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>48</v>
@@ -7167,16 +6981,16 @@
         <v>19</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J57" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>139</v>
+      <c r="K57" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>32</v>
@@ -7187,8 +7001,8 @@
       <c r="AMI57" s="4"/>
       <c r="AMJ57" s="4"/>
     </row>
-    <row r="58" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+    <row r="58" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
         <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -7198,28 +7012,28 @@
         <v>33</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="J58" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>140</v>
+      <c r="K58" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>32</v>
@@ -7230,38 +7044,38 @@
       <c r="AMI58" s="4"/>
       <c r="AMJ58" s="4"/>
     </row>
-    <row r="59" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+    <row r="59" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
         <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="J59" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L59" s="3" t="s">
@@ -7273,18 +7087,18 @@
       <c r="AMI59" s="4"/>
       <c r="AMJ59" s="4"/>
     </row>
-    <row r="60" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+    <row r="60" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>44</v>
@@ -7299,16 +7113,16 @@
         <v>34</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="J60" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="AMF60" s="4"/>
       <c r="AMG60" s="4"/>
@@ -7316,24 +7130,24 @@
       <c r="AMI60" s="4"/>
       <c r="AMJ60" s="4"/>
     </row>
-    <row r="61" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="61" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>34</v>
@@ -7342,16 +7156,16 @@
         <v>34</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J61" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="AMF61" s="4"/>
       <c r="AMG61" s="4"/>
@@ -7359,21 +7173,21 @@
       <c r="AMI61" s="4"/>
       <c r="AMJ61" s="4"/>
     </row>
-    <row r="62" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+    <row r="62" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>34</v>
@@ -7385,7 +7199,7 @@
         <v>34</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="J62" s="18" t="s">
         <v>22</v>
@@ -7394,7 +7208,7 @@
         <v>23</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="AMF62" s="4"/>
       <c r="AMG62" s="4"/>
@@ -7402,15 +7216,15 @@
       <c r="AMI62" s="4"/>
       <c r="AMJ62" s="4"/>
     </row>
-    <row r="63" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+    <row r="63" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
         <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>59</v>
@@ -7421,8 +7235,8 @@
       <c r="F63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G63" s="18" t="s">
-        <v>34</v>
+      <c r="G63" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>34</v>
@@ -7437,7 +7251,7 @@
         <v>23</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="AMF63" s="4"/>
       <c r="AMG63" s="4"/>
@@ -7445,15 +7259,15 @@
       <c r="AMI63" s="4"/>
       <c r="AMJ63" s="4"/>
     </row>
-    <row r="64" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+    <row r="64" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
         <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>59</v>
@@ -7461,11 +7275,11 @@
       <c r="E64" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>34</v>
+      <c r="F64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>34</v>
@@ -7488,15 +7302,15 @@
       <c r="AMI64" s="4"/>
       <c r="AMJ64" s="4"/>
     </row>
-    <row r="65" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="65" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
         <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>59</v>
@@ -7507,8 +7321,8 @@
       <c r="F65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>19</v>
+      <c r="G65" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>34</v>
@@ -7531,15 +7345,15 @@
       <c r="AMI65" s="4"/>
       <c r="AMJ65" s="4"/>
     </row>
-    <row r="66" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+    <row r="66" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
         <v>61</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>59</v>
@@ -7547,14 +7361,14 @@
       <c r="E66" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>19</v>
+      <c r="F66" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>49</v>
@@ -7574,24 +7388,24 @@
       <c r="AMI66" s="4"/>
       <c r="AMJ66" s="4"/>
     </row>
-    <row r="67" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+    <row r="67" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
         <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>19</v>
+      <c r="F67" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>34</v>
@@ -7617,15 +7431,15 @@
       <c r="AMI67" s="4"/>
       <c r="AMJ67" s="4"/>
     </row>
-    <row r="68" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+    <row r="68" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
         <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>59</v>
@@ -7633,14 +7447,14 @@
       <c r="E68" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>20</v>
+      <c r="F68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>49</v>
@@ -7660,27 +7474,27 @@
       <c r="AMI68" s="4"/>
       <c r="AMJ68" s="4"/>
     </row>
-    <row r="69" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+    <row r="69" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
         <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>34</v>
+      <c r="F69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>34</v>
@@ -7703,15 +7517,15 @@
       <c r="AMI69" s="4"/>
       <c r="AMJ69" s="4"/>
     </row>
-    <row r="70" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+    <row r="70" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
         <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>59</v>
@@ -7719,8 +7533,8 @@
       <c r="E70" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>19</v>
+      <c r="F70" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>19</v>
@@ -7746,209 +7560,49 @@
       <c r="AMI70" s="4"/>
       <c r="AMJ70" s="4"/>
     </row>
-    <row r="71" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>66</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J71" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF71" s="4"/>
-      <c r="AMG71" s="4"/>
-      <c r="AMH71" s="4"/>
-      <c r="AMI71" s="4"/>
-      <c r="AMJ71" s="4"/>
-    </row>
-    <row r="72" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>67</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J72" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF72" s="4"/>
-      <c r="AMG72" s="4"/>
-      <c r="AMH72" s="4"/>
-      <c r="AMI72" s="4"/>
-      <c r="AMJ72" s="4"/>
-    </row>
-    <row r="73" spans="1:1024" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
-        <v>68</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J73" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L73" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AMF73" s="9"/>
-      <c r="AMG73" s="9"/>
-      <c r="AMH73" s="9"/>
-      <c r="AMI73" s="9"/>
-      <c r="AMJ73" s="9"/>
-    </row>
-    <row r="74" spans="1:1024" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>69</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J74" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF74" s="9"/>
-      <c r="AMG74" s="9"/>
-      <c r="AMH74" s="9"/>
-      <c r="AMI74" s="9"/>
-      <c r="AMJ74" s="9"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
-    <col min="5" max="1018" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1019" max="1019" width="10.6640625" customWidth="1"/>
-    <col min="1020" max="1025" width="10.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="1019" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7958,7 +7612,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7968,10 +7622,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -8009,24 +7663,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
@@ -8035,7 +7689,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>22</v>
@@ -8047,18 +7701,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
@@ -8073,7 +7727,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -8085,18 +7739,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -8111,7 +7765,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>22</v>
@@ -8123,12 +7777,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -8161,12 +7815,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -8199,12 +7853,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -8237,12 +7891,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+    <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>27</v>
@@ -8281,12 +7935,12 @@
       <c r="AMI12" s="15"/>
       <c r="AMJ12" s="15"/>
     </row>
-    <row r="13" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+    <row r="13" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>38</v>
@@ -8298,13 +7952,13 @@
         <v>30</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>37</v>
@@ -8325,12 +7979,12 @@
       <c r="AMI13" s="15"/>
       <c r="AMJ13" s="15"/>
     </row>
-    <row r="14" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+    <row r="14" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>35</v>
@@ -8369,12 +8023,12 @@
       <c r="AMI14" s="15"/>
       <c r="AMJ14" s="15"/>
     </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
@@ -8407,12 +8061,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>50</v>
@@ -8445,12 +8099,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -8483,12 +8137,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
@@ -8521,18 +8175,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>48</v>
@@ -8559,15 +8213,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>43</v>
@@ -8591,18 +8245,18 @@
         <v>22</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -8629,18 +8283,18 @@
         <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
@@ -8667,21 +8321,21 @@
         <v>22</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
@@ -8711,12 +8365,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
@@ -8749,12 +8403,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>38</v>
@@ -8787,18 +8441,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>44</v>
@@ -8813,7 +8467,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>22</v>
@@ -8825,18 +8479,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>44</v>
@@ -8851,7 +8505,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>22</v>
@@ -8863,12 +8517,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>50</v>
@@ -8895,18 +8549,18 @@
         <v>22</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
@@ -8933,18 +8587,18 @@
         <v>22</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -8977,12 +8631,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>61</v>
@@ -9015,12 +8669,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>46</v>
@@ -9053,12 +8707,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>50</v>
@@ -9091,12 +8745,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>51</v>
@@ -9129,12 +8783,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>25</v>
@@ -9167,12 +8821,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>27</v>
@@ -9205,12 +8859,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>33</v>
@@ -9243,12 +8897,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>35</v>
@@ -9281,12 +8935,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>42</v>
@@ -9319,12 +8973,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1024" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+    <row r="40" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="n">
         <v>40</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>16</v>
@@ -9363,12 +9017,12 @@
       <c r="AMI40" s="15"/>
       <c r="AMJ40" s="15"/>
     </row>
-    <row r="41" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
@@ -9401,12 +9055,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -9440,39 +9094,47 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="8" customWidth="1"/>
-    <col min="12" max="1019" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1020" max="1023" width="10.5" customWidth="1"/>
-    <col min="1024" max="1025" width="8.83203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -9482,7 +9144,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9492,10 +9154,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -9533,12 +9195,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -9568,12 +9230,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -9603,12 +9265,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -9620,7 +9282,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -9635,15 +9297,15 @@
         <v>22</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -9676,12 +9338,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -9714,12 +9376,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -9752,12 +9414,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
@@ -9778,7 +9440,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -9787,15 +9449,15 @@
         <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
@@ -9816,7 +9478,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>22</v>
@@ -9825,15 +9487,15 @@
         <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -9854,7 +9516,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -9863,21 +9525,21 @@
         <v>23</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>48</v>
@@ -9892,7 +9554,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -9904,18 +9566,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>48</v>
@@ -9927,10 +9589,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -9942,18 +9604,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>48</v>
@@ -9968,7 +9630,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -9980,18 +9642,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>48</v>
@@ -10006,7 +9668,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -10018,18 +9680,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>48</v>
@@ -10044,7 +9706,7 @@
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
@@ -10056,18 +9718,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>48</v>
@@ -10082,7 +9744,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>22</v>
@@ -10094,12 +9756,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
@@ -10126,24 +9788,24 @@
         <v>22</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>48</v>
@@ -10170,18 +9832,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>48</v>
@@ -10208,18 +9870,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>48</v>
@@ -10246,18 +9908,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>48</v>
@@ -10284,18 +9946,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>48</v>
@@ -10322,18 +9984,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>48</v>
@@ -10360,18 +10022,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>48</v>
@@ -10398,18 +10060,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>48</v>
@@ -10436,18 +10098,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>48</v>
@@ -10474,18 +10136,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>48</v>
@@ -10513,35 +10175,43 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
-    <col min="5" max="1019" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1020" max="1025" width="10.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -10551,7 +10221,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10561,10 +10231,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -10602,12 +10272,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -10615,16 +10285,16 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -10637,12 +10307,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -10650,16 +10320,16 @@
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -10672,12 +10342,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -10685,16 +10355,16 @@
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -10707,29 +10377,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -10742,29 +10412,29 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -10777,30 +10447,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>148</v>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>106</v>
@@ -10812,29 +10482,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -10847,12 +10517,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>78</v>
@@ -10860,16 +10530,16 @@
       <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -10882,29 +10552,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -10917,29 +10587,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -10952,29 +10622,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -10988,37 +10658,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="1019" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1020" max="1025" width="10.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -11028,7 +10706,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11038,10 +10716,10 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -11079,12 +10757,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -11117,12 +10795,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -11155,12 +10833,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -11193,12 +10871,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -11231,12 +10909,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -11269,12 +10947,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -11307,18 +10985,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>48</v>
@@ -11345,18 +11023,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>48</v>
@@ -11383,18 +11061,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>48</v>
@@ -11409,7 +11087,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -11421,18 +11099,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>48</v>
@@ -11447,7 +11125,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -11459,24 +11137,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -11485,7 +11163,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -11497,18 +11175,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>85</v>
@@ -11523,7 +11201,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -11535,18 +11213,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -11561,7 +11239,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -11573,18 +11251,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>44</v>
@@ -11599,7 +11277,7 @@
         <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
@@ -11611,18 +11289,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>44</v>
@@ -11637,7 +11315,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>22</v>
@@ -11649,18 +11327,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>44</v>
@@ -11675,7 +11353,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>22</v>
@@ -11687,18 +11365,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>44</v>
@@ -11713,7 +11391,7 @@
         <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>22</v>
@@ -11725,18 +11403,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>44</v>
@@ -11751,7 +11429,7 @@
         <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>22</v>
@@ -11763,18 +11441,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>44</v>
@@ -11789,7 +11467,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>22</v>
@@ -11801,34 +11479,34 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="J25" s="6" t="s">
         <v>22</v>
       </c>
@@ -11837,34 +11515,34 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="J26" s="6" t="s">
         <v>22</v>
       </c>
@@ -11873,34 +11551,34 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="J27" s="6" t="s">
         <v>22</v>
       </c>
@@ -11909,34 +11587,34 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="J28" s="6" t="s">
         <v>22</v>
       </c>
@@ -11945,34 +11623,34 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="J29" s="6" t="s">
         <v>22</v>
       </c>
@@ -11982,41 +11660,49 @@
       <c r="L29" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
-    <col min="13" max="1019" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1020" max="1025" width="10.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -12026,7 +11712,7 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12036,7 +11722,7 @@
       <c r="AMI3" s="4"/>
       <c r="AMJ3" s="4"/>
     </row>
-    <row r="5" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -12074,12 +11760,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -12112,18 +11798,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
@@ -12138,7 +11824,7 @@
         <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -12147,18 +11833,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -12173,7 +11859,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>22</v>
@@ -12182,18 +11868,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>44</v>
@@ -12208,7 +11894,7 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>22</v>
@@ -12217,94 +11903,94 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="L10" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="L11" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>44</v>
@@ -12319,7 +12005,7 @@
         <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -12329,18 +12015,18 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>44</v>
@@ -12355,7 +12041,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>22</v>
@@ -12365,18 +12051,18 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>44</v>
@@ -12391,7 +12077,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -12401,18 +12087,18 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>44</v>
@@ -12427,7 +12113,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -12437,18 +12123,18 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
@@ -12463,7 +12149,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -12474,7 +12160,12 @@
       <c r="L16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="212">
   <si>
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t xml:space="preserve">DOI:10.1002/2017EF000714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discarded due to problems with units in precipitation</t>
   </si>
   <si>
     <t xml:space="preserve">RACMO22T_v1</t>
@@ -672,7 +675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -722,6 +725,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFED1C24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -778,7 +794,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -859,6 +875,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -922,7 +950,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1894,7 +1922,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1960,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -1998,13 +2026,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -2019,7 +2047,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -2036,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -2074,13 +2102,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>48</v>
@@ -2112,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -2150,13 +2178,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>48</v>
@@ -2188,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2226,7 +2254,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -2264,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -2291,7 +2319,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>32</v>
@@ -2302,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -2329,7 +2357,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>32</v>
@@ -2340,7 +2368,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2367,7 +2395,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>32</v>
@@ -2399,8 +2427,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="10.67"/>
@@ -2410,7 +2438,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2476,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -2508,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -2540,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -2572,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>115</v>
@@ -2593,16 +2621,16 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2610,7 +2638,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>117</v>
@@ -2631,13 +2659,13 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2645,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -2666,16 +2694,16 @@
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2683,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>42</v>
@@ -2704,13 +2732,13 @@
         <v>20</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AMF12" s="15"/>
       <c r="AMG12" s="15"/>
@@ -2723,7 +2751,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -2750,7 +2778,7 @@
         <v>22</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>32</v>
@@ -2761,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>61</v>
@@ -2782,16 +2810,16 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2799,7 +2827,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -2814,22 +2842,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2837,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -2869,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
@@ -2901,7 +2929,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -2955,7 +2983,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="5" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
@@ -4687,7 +4715,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -7582,8 +7610,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8366,79 +8394,79 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="F24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="J24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="F25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>32</v>
+      <c r="J25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8452,7 +8480,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>44</v>
@@ -8490,7 +8518,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>44</v>
@@ -9060,7 +9088,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -9131,7 +9159,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9200,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -9235,7 +9263,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -9270,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -9282,7 +9310,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -9297,7 +9325,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9305,7 +9333,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -9343,7 +9371,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -9381,7 +9409,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -9419,7 +9447,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
@@ -9440,7 +9468,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -9449,7 +9477,7 @@
         <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9457,7 +9485,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
@@ -9478,7 +9506,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>22</v>
@@ -9487,7 +9515,7 @@
         <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9495,7 +9523,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -9516,7 +9544,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -9525,7 +9553,7 @@
         <v>23</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9533,13 +9561,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>48</v>
@@ -9554,7 +9582,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -9571,13 +9599,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>48</v>
@@ -9589,10 +9617,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -9609,13 +9637,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>48</v>
@@ -9630,7 +9658,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -9647,13 +9675,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>48</v>
@@ -9668,7 +9696,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -9685,13 +9713,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>48</v>
@@ -9706,7 +9734,7 @@
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
@@ -9723,13 +9751,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>48</v>
@@ -9744,7 +9772,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>22</v>
@@ -9761,7 +9789,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
@@ -9788,7 +9816,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>32</v>
@@ -9799,13 +9827,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>48</v>
@@ -9837,13 +9865,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>48</v>
@@ -9875,13 +9903,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>48</v>
@@ -9913,13 +9941,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>48</v>
@@ -9951,13 +9979,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>48</v>
@@ -9989,13 +10017,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>48</v>
@@ -10027,13 +10055,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>48</v>
@@ -10065,13 +10093,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>48</v>
@@ -10103,13 +10131,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>48</v>
@@ -10141,13 +10169,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>48</v>
@@ -10208,7 +10236,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10277,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -10312,7 +10340,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -10347,7 +10375,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -10382,13 +10410,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>48</v>
@@ -10417,13 +10445,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>48</v>
@@ -10452,13 +10480,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>48</v>
@@ -10487,13 +10515,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>48</v>
@@ -10522,7 +10550,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>78</v>
@@ -10557,13 +10585,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>30</v>
@@ -10592,16 +10620,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>20</v>
@@ -10627,13 +10655,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>30</v>
@@ -10693,7 +10721,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10762,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -10800,7 +10828,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -10838,7 +10866,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -10876,7 +10904,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -10914,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -10952,7 +10980,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -10990,13 +11018,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>48</v>
@@ -11028,13 +11056,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>48</v>
@@ -11066,13 +11094,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>48</v>
@@ -11087,7 +11115,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -11104,13 +11132,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>48</v>
@@ -11125,7 +11153,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -11142,7 +11170,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -11163,7 +11191,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -11180,7 +11208,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -11201,7 +11229,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -11218,7 +11246,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -11239,7 +11267,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -11256,13 +11284,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>44</v>
@@ -11277,7 +11305,7 @@
         <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
@@ -11294,13 +11322,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>44</v>
@@ -11315,7 +11343,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>22</v>
@@ -11332,13 +11360,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>44</v>
@@ -11353,7 +11381,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>22</v>
@@ -11370,13 +11398,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>44</v>
@@ -11391,7 +11419,7 @@
         <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>22</v>
@@ -11408,13 +11436,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>44</v>
@@ -11429,7 +11457,7 @@
         <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>22</v>
@@ -11446,13 +11474,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>44</v>
@@ -11467,7 +11495,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>22</v>
@@ -11484,16 +11512,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
@@ -11505,7 +11533,7 @@
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>22</v>
@@ -11520,16 +11548,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
@@ -11541,7 +11569,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>22</v>
@@ -11556,16 +11584,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
@@ -11577,7 +11605,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>22</v>
@@ -11592,16 +11620,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
@@ -11613,7 +11641,7 @@
         <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>22</v>
@@ -11628,16 +11656,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
@@ -11649,7 +11677,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>22</v>
@@ -11686,9 +11714,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="10.67"/>
@@ -11699,7 +11727,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11765,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -11803,13 +11831,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
@@ -11838,13 +11866,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -11873,13 +11901,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>44</v>
@@ -11908,16 +11936,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -11929,16 +11957,16 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11946,16 +11974,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -11967,16 +11995,16 @@
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11984,13 +12012,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>44</v>
@@ -12005,7 +12033,7 @@
         <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -12020,13 +12048,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>44</v>
@@ -12041,7 +12069,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>22</v>
@@ -12056,13 +12084,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>44</v>
@@ -12077,7 +12105,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -12092,13 +12120,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>44</v>
@@ -12113,7 +12141,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -12128,13 +12156,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
@@ -12149,7 +12177,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>

--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
@@ -675,7 +675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -733,12 +733,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -794,7 +788,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -880,10 +874,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4715,8 +4705,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6483,11 +6473,11 @@
       <c r="D45" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>34</v>
+      <c r="E45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>19</v>
@@ -7610,7 +7600,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -8465,7 +8455,7 @@
       <c r="K25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="8" t="s">
         <v>151</v>
       </c>
     </row>

--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
@@ -957,7 +957,7 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2409,8 +2409,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2697,7 +2697,7 @@
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2965,7 +2965,7 @@
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>58</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>58</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>58</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>58</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>58</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>58</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>58</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>58</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>55</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>72</v>
@@ -3857,7 +3857,7 @@
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>81</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>81</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>81</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>81</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>81</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>81</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>81</v>
@@ -4615,9 +4615,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>81</v>
@@ -4651,9 +4651,9 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>81</v>
@@ -4705,8 +4705,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7601,7 +7601,7 @@
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7910,7 +7910,7 @@
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -7954,7 +7954,7 @@
       <c r="AMJ12" s="15"/>
     </row>
     <row r="13" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -7998,7 +7998,7 @@
       <c r="AMJ13" s="15"/>
     </row>
     <row r="14" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -8384,7 +8384,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="n">
+      <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -8422,7 +8422,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="n">
+      <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -8499,7 +8499,7 @@
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>149</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>149</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>149</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>149</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>149</v>
@@ -8689,7 +8689,7 @@
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>149</v>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>149</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>149</v>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>149</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>149</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>149</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>149</v>
@@ -8955,7 +8955,7 @@
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>149</v>
@@ -8992,8 +8992,8 @@
       </c>
     </row>
     <row r="40" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
-        <v>40</v>
+      <c r="A40" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>149</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>149</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>154</v>
@@ -9130,7 +9130,7 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10211,7 +10211,7 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10694,7 +10694,7 @@
   <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11497,7 +11497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>21</v>
       </c>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>22</v>
       </c>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>23</v>
       </c>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>24</v>
       </c>
@@ -11696,7 +11696,7 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="212">
   <si>
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
@@ -2409,7 +2409,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -11693,10 +11693,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ16"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11824,7 +11824,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>190</v>
@@ -11832,14 +11832,14 @@
       <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>131</v>
@@ -11859,16 +11859,16 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>34</v>
@@ -11894,31 +11894,34 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>34</v>
+        <v>172</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>23</v>
+        <v>194</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11929,7 +11932,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>192</v>
@@ -11964,38 +11967,36 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>195</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -12005,7 +12006,7 @@
         <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>185</v>
@@ -12041,7 +12042,7 @@
         <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>185</v>
@@ -12077,7 +12078,7 @@
         <v>196</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>185</v>
@@ -12113,7 +12114,7 @@
         <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>185</v>
@@ -12141,42 +12142,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="3"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,8 @@
     <sheet name="5.AFR" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="6.WAS-final" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="7.EAS-final" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="9.AUS" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="10.ANT" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="9.AUS-final" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="10.ANT-final" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="11.ARC-final" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="14.SEA" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="214">
   <si>
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
@@ -446,6 +446,9 @@
     <t xml:space="preserve">DOI:10.5194/gmd-12-1909-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">HadREM3-GA7-05_v2</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOI:10.1007/s10113-014-0587-y; DOI:10.1007/s10113-013-0499-2</t>
   </si>
   <si>
@@ -660,6 +663,9 @@
   </si>
   <si>
     <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable tas is not available on ESGF. In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang)</t>
   </si>
   <si>
     <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang). Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php . Only historical and rcp45 experiments are available on ESGF for a few variables</t>
@@ -675,7 +681,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -733,8 +739,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +762,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE0EFD4"/>
         <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -788,7 +805,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -861,11 +878,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,7 +894,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,7 +962,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1912,7 +1981,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1978,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -2016,13 +2085,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -2037,7 +2106,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -2054,7 +2123,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -2092,13 +2161,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>48</v>
@@ -2130,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -2168,13 +2237,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>48</v>
@@ -2206,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2244,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -2282,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -2309,7 +2378,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>32</v>
@@ -2320,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -2347,7 +2416,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>32</v>
@@ -2358,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2385,7 +2454,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>32</v>
@@ -2410,7 +2479,7 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2428,7 +2497,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2494,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -2526,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -2558,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -2590,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>115</v>
@@ -2611,16 +2680,16 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2628,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>117</v>
@@ -2649,13 +2718,13 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2663,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -2684,16 +2753,16 @@
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2701,7 +2770,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>42</v>
@@ -2709,26 +2778,26 @@
       <c r="D12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="34" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="J12" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="34" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AMF12" s="15"/>
       <c r="AMG12" s="15"/>
@@ -2741,7 +2810,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -2768,7 +2837,7 @@
         <v>22</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>32</v>
@@ -2779,7 +2848,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>61</v>
@@ -2800,16 +2869,16 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2817,7 +2886,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -2832,22 +2901,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2855,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -2887,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
@@ -2919,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -4705,8 +4774,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4792,281 +4861,281 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="18" t="s">
         <v>96</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF6" s="4"/>
-      <c r="AMG6" s="4"/>
-      <c r="AMH6" s="4"/>
-      <c r="AMI6" s="4"/>
-      <c r="AMJ6" s="4"/>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="L6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF6" s="20"/>
+      <c r="AMG6" s="20"/>
+      <c r="AMH6" s="20"/>
+      <c r="AMI6" s="20"/>
+      <c r="AMJ6" s="20"/>
+    </row>
+    <row r="7" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="18" t="s">
         <v>96</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF7" s="4"/>
-      <c r="AMG7" s="4"/>
-      <c r="AMH7" s="4"/>
-      <c r="AMI7" s="4"/>
-      <c r="AMJ7" s="4"/>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="L7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF7" s="20"/>
+      <c r="AMG7" s="20"/>
+      <c r="AMH7" s="20"/>
+      <c r="AMI7" s="20"/>
+      <c r="AMJ7" s="20"/>
+    </row>
+    <row r="8" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="18" t="s">
         <v>96</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF8" s="4"/>
-      <c r="AMG8" s="4"/>
-      <c r="AMH8" s="4"/>
-      <c r="AMI8" s="4"/>
-      <c r="AMJ8" s="4"/>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="L8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF8" s="20"/>
+      <c r="AMG8" s="20"/>
+      <c r="AMH8" s="20"/>
+      <c r="AMI8" s="20"/>
+      <c r="AMJ8" s="20"/>
+    </row>
+    <row r="9" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="F9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF9" s="4"/>
-      <c r="AMG9" s="4"/>
-      <c r="AMH9" s="4"/>
-      <c r="AMI9" s="4"/>
-      <c r="AMJ9" s="4"/>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="L9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF9" s="24"/>
+      <c r="AMG9" s="24"/>
+      <c r="AMH9" s="24"/>
+      <c r="AMI9" s="24"/>
+      <c r="AMJ9" s="24"/>
+    </row>
+    <row r="10" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="F10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF10" s="4"/>
-      <c r="AMG10" s="4"/>
-      <c r="AMH10" s="4"/>
-      <c r="AMI10" s="4"/>
-      <c r="AMJ10" s="4"/>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="L10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF10" s="24"/>
+      <c r="AMG10" s="24"/>
+      <c r="AMH10" s="24"/>
+      <c r="AMI10" s="24"/>
+      <c r="AMJ10" s="24"/>
+    </row>
+    <row r="11" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="18" t="s">
         <v>96</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF11" s="4"/>
-      <c r="AMG11" s="4"/>
-      <c r="AMH11" s="4"/>
-      <c r="AMI11" s="4"/>
-      <c r="AMJ11" s="4"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="L11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF11" s="20"/>
+      <c r="AMG11" s="20"/>
+      <c r="AMH11" s="20"/>
+      <c r="AMI11" s="20"/>
+      <c r="AMJ11" s="20"/>
+    </row>
+    <row r="12" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -5075,41 +5144,41 @@
       <c r="H12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="18" t="s">
         <v>106</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AMF12" s="4"/>
-      <c r="AMG12" s="4"/>
-      <c r="AMH12" s="4"/>
-      <c r="AMI12" s="4"/>
-      <c r="AMJ12" s="4"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="AMF12" s="20"/>
+      <c r="AMG12" s="20"/>
+      <c r="AMH12" s="20"/>
+      <c r="AMI12" s="20"/>
+      <c r="AMJ12" s="20"/>
+    </row>
+    <row r="13" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -5118,84 +5187,84 @@
       <c r="H13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="18" t="s">
         <v>106</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF13" s="4"/>
-      <c r="AMG13" s="4"/>
-      <c r="AMH13" s="4"/>
-      <c r="AMI13" s="4"/>
-      <c r="AMJ13" s="4"/>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="K13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF13" s="20"/>
+      <c r="AMG13" s="20"/>
+      <c r="AMH13" s="20"/>
+      <c r="AMI13" s="20"/>
+      <c r="AMJ13" s="20"/>
+    </row>
+    <row r="14" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="F14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF14" s="4"/>
-      <c r="AMG14" s="4"/>
-      <c r="AMH14" s="4"/>
-      <c r="AMI14" s="4"/>
-      <c r="AMJ14" s="4"/>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="J14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF14" s="24"/>
+      <c r="AMG14" s="24"/>
+      <c r="AMH14" s="24"/>
+      <c r="AMI14" s="24"/>
+      <c r="AMJ14" s="24"/>
+    </row>
+    <row r="15" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="18" t="s">
@@ -5204,41 +5273,41 @@
       <c r="H15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="18" t="s">
         <v>106</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF15" s="4"/>
-      <c r="AMG15" s="4"/>
-      <c r="AMH15" s="4"/>
-      <c r="AMI15" s="4"/>
-      <c r="AMJ15" s="4"/>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="K15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF15" s="20"/>
+      <c r="AMG15" s="20"/>
+      <c r="AMH15" s="20"/>
+      <c r="AMI15" s="20"/>
+      <c r="AMJ15" s="20"/>
+    </row>
+    <row r="16" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -5247,41 +5316,41 @@
       <c r="H16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="18" t="s">
         <v>106</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF16" s="4"/>
-      <c r="AMG16" s="4"/>
-      <c r="AMH16" s="4"/>
-      <c r="AMI16" s="4"/>
-      <c r="AMJ16" s="4"/>
-    </row>
-    <row r="17" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="K16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF16" s="20"/>
+      <c r="AMG16" s="20"/>
+      <c r="AMH16" s="20"/>
+      <c r="AMI16" s="20"/>
+      <c r="AMJ16" s="20"/>
+    </row>
+    <row r="17" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -5290,41 +5359,41 @@
       <c r="H17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="18" t="s">
         <v>109</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AMF17" s="4"/>
-      <c r="AMG17" s="4"/>
-      <c r="AMH17" s="4"/>
-      <c r="AMI17" s="4"/>
-      <c r="AMJ17" s="4"/>
-    </row>
-    <row r="18" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="AMF17" s="20"/>
+      <c r="AMG17" s="20"/>
+      <c r="AMH17" s="20"/>
+      <c r="AMI17" s="20"/>
+      <c r="AMJ17" s="20"/>
+    </row>
+    <row r="18" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="18" t="s">
@@ -5333,293 +5402,293 @@
       <c r="H18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="18" t="s">
         <v>109</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AMF18" s="4"/>
-      <c r="AMG18" s="4"/>
-      <c r="AMH18" s="4"/>
-      <c r="AMI18" s="4"/>
-      <c r="AMJ18" s="4"/>
-    </row>
-    <row r="19" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="AMF18" s="20"/>
+      <c r="AMG18" s="20"/>
+      <c r="AMH18" s="20"/>
+      <c r="AMI18" s="20"/>
+      <c r="AMJ18" s="20"/>
+    </row>
+    <row r="19" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="18" t="s">
         <v>109</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF19" s="4"/>
-      <c r="AMG19" s="4"/>
-      <c r="AMH19" s="4"/>
-      <c r="AMI19" s="4"/>
-      <c r="AMJ19" s="4"/>
-    </row>
-    <row r="20" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="L19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF19" s="20"/>
+      <c r="AMG19" s="20"/>
+      <c r="AMH19" s="20"/>
+      <c r="AMI19" s="20"/>
+      <c r="AMJ19" s="20"/>
+    </row>
+    <row r="20" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="18" t="s">
         <v>109</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF20" s="4"/>
-      <c r="AMG20" s="4"/>
-      <c r="AMH20" s="4"/>
-      <c r="AMI20" s="4"/>
-      <c r="AMJ20" s="4"/>
-    </row>
-    <row r="21" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="L20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF20" s="20"/>
+      <c r="AMG20" s="20"/>
+      <c r="AMH20" s="20"/>
+      <c r="AMI20" s="20"/>
+      <c r="AMJ20" s="20"/>
+    </row>
+    <row r="21" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="18" t="s">
         <v>109</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF21" s="4"/>
-      <c r="AMG21" s="4"/>
-      <c r="AMH21" s="4"/>
-      <c r="AMI21" s="4"/>
-      <c r="AMJ21" s="4"/>
-    </row>
-    <row r="22" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="L21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF21" s="20"/>
+      <c r="AMG21" s="20"/>
+      <c r="AMH21" s="20"/>
+      <c r="AMI21" s="20"/>
+      <c r="AMJ21" s="20"/>
+    </row>
+    <row r="22" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="18" t="s">
         <v>80</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AMF22" s="4"/>
-      <c r="AMG22" s="4"/>
-      <c r="AMH22" s="4"/>
-      <c r="AMI22" s="4"/>
-      <c r="AMJ22" s="4"/>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="K22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AMF22" s="20"/>
+      <c r="AMG22" s="20"/>
+      <c r="AMH22" s="20"/>
+      <c r="AMI22" s="20"/>
+      <c r="AMJ22" s="20"/>
+    </row>
+    <row r="23" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="18" t="s">
         <v>80</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF23" s="4"/>
-      <c r="AMG23" s="4"/>
-      <c r="AMH23" s="4"/>
-      <c r="AMI23" s="4"/>
-      <c r="AMJ23" s="4"/>
-    </row>
-    <row r="24" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="K23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF23" s="20"/>
+      <c r="AMG23" s="20"/>
+      <c r="AMH23" s="20"/>
+      <c r="AMI23" s="20"/>
+      <c r="AMJ23" s="20"/>
+    </row>
+    <row r="24" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="F24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF24" s="4"/>
-      <c r="AMG24" s="4"/>
-      <c r="AMH24" s="4"/>
-      <c r="AMI24" s="4"/>
-      <c r="AMJ24" s="4"/>
-    </row>
-    <row r="25" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="J24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF24" s="24"/>
+      <c r="AMG24" s="24"/>
+      <c r="AMH24" s="24"/>
+      <c r="AMI24" s="24"/>
+      <c r="AMJ24" s="24"/>
+    </row>
+    <row r="25" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="18" t="s">
@@ -5628,41 +5697,41 @@
       <c r="H25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="18" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF25" s="4"/>
-      <c r="AMG25" s="4"/>
-      <c r="AMH25" s="4"/>
-      <c r="AMI25" s="4"/>
-      <c r="AMJ25" s="4"/>
-    </row>
-    <row r="26" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="K25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF25" s="20"/>
+      <c r="AMG25" s="20"/>
+      <c r="AMH25" s="20"/>
+      <c r="AMI25" s="20"/>
+      <c r="AMJ25" s="20"/>
+    </row>
+    <row r="26" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="18" t="s">
@@ -5671,1559 +5740,1482 @@
       <c r="H26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="18" t="s">
         <v>80</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF26" s="4"/>
-      <c r="AMG26" s="4"/>
-      <c r="AMH26" s="4"/>
-      <c r="AMI26" s="4"/>
-      <c r="AMJ26" s="4"/>
-    </row>
-    <row r="27" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="K26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF26" s="20"/>
+      <c r="AMG26" s="20"/>
+      <c r="AMH26" s="20"/>
+      <c r="AMI26" s="20"/>
+      <c r="AMJ26" s="20"/>
+    </row>
+    <row r="27" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="18" t="s">
         <v>80</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF27" s="4"/>
-      <c r="AMG27" s="4"/>
-      <c r="AMH27" s="4"/>
-      <c r="AMI27" s="4"/>
-      <c r="AMJ27" s="4"/>
-    </row>
-    <row r="28" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="K27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF27" s="20"/>
+      <c r="AMG27" s="20"/>
+      <c r="AMH27" s="20"/>
+      <c r="AMI27" s="20"/>
+      <c r="AMJ27" s="20"/>
+    </row>
+    <row r="28" s="25" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AMF28" s="26"/>
+      <c r="AMG28" s="26"/>
+      <c r="AMH28" s="26"/>
+      <c r="AMI28" s="26"/>
+      <c r="AMJ28" s="26"/>
+    </row>
+    <row r="29" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E29" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="F29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF28" s="4"/>
-      <c r="AMG28" s="4"/>
-      <c r="AMH28" s="4"/>
-      <c r="AMI28" s="4"/>
-      <c r="AMJ28" s="4"/>
-    </row>
-    <row r="29" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="J29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF29" s="20"/>
+      <c r="AMG29" s="20"/>
+      <c r="AMH29" s="20"/>
+      <c r="AMI29" s="20"/>
+      <c r="AMJ29" s="20"/>
+    </row>
+    <row r="30" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="F30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF29" s="4"/>
-      <c r="AMG29" s="4"/>
-      <c r="AMH29" s="4"/>
-      <c r="AMI29" s="4"/>
-      <c r="AMJ29" s="4"/>
-    </row>
-    <row r="30" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="J30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF30" s="24"/>
+      <c r="AMG30" s="24"/>
+      <c r="AMH30" s="24"/>
+      <c r="AMI30" s="24"/>
+      <c r="AMJ30" s="24"/>
+    </row>
+    <row r="31" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18" t="n">
         <v>25</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E31" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="F31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF30" s="4"/>
-      <c r="AMG30" s="4"/>
-      <c r="AMH30" s="4"/>
-      <c r="AMI30" s="4"/>
-      <c r="AMJ30" s="4"/>
-    </row>
-    <row r="31" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="J31" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF31" s="20"/>
+      <c r="AMG31" s="20"/>
+      <c r="AMH31" s="20"/>
+      <c r="AMI31" s="20"/>
+      <c r="AMJ31" s="20"/>
+    </row>
+    <row r="32" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="F32" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF31" s="4"/>
-      <c r="AMG31" s="4"/>
-      <c r="AMH31" s="4"/>
-      <c r="AMI31" s="4"/>
-      <c r="AMJ31" s="4"/>
-    </row>
-    <row r="32" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="J32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF32" s="20"/>
+      <c r="AMG32" s="20"/>
+      <c r="AMH32" s="20"/>
+      <c r="AMI32" s="20"/>
+      <c r="AMJ32" s="20"/>
+    </row>
+    <row r="33" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="n">
         <v>27</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E33" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="F33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J32" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF32" s="4"/>
-      <c r="AMG32" s="4"/>
-      <c r="AMH32" s="4"/>
-      <c r="AMI32" s="4"/>
-      <c r="AMJ32" s="4"/>
-    </row>
-    <row r="33" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="J33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF33" s="24"/>
+      <c r="AMG33" s="24"/>
+      <c r="AMH33" s="24"/>
+      <c r="AMI33" s="24"/>
+      <c r="AMJ33" s="24"/>
+    </row>
+    <row r="34" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E34" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="F34" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF33" s="4"/>
-      <c r="AMG33" s="4"/>
-      <c r="AMH33" s="4"/>
-      <c r="AMI33" s="4"/>
-      <c r="AMJ33" s="4"/>
-    </row>
-    <row r="34" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="J34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF34" s="24"/>
+      <c r="AMG34" s="24"/>
+      <c r="AMH34" s="24"/>
+      <c r="AMI34" s="24"/>
+      <c r="AMJ34" s="24"/>
+    </row>
+    <row r="35" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="18" t="n">
         <v>29</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E35" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="3" t="s">
+      <c r="F35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF34" s="4"/>
-      <c r="AMG34" s="4"/>
-      <c r="AMH34" s="4"/>
-      <c r="AMI34" s="4"/>
-      <c r="AMJ34" s="4"/>
-    </row>
-    <row r="35" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="J35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF35" s="20"/>
+      <c r="AMG35" s="20"/>
+      <c r="AMH35" s="20"/>
+      <c r="AMI35" s="20"/>
+      <c r="AMJ35" s="20"/>
+    </row>
+    <row r="36" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E36" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="F36" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF35" s="4"/>
-      <c r="AMG35" s="4"/>
-      <c r="AMH35" s="4"/>
-      <c r="AMI35" s="4"/>
-      <c r="AMJ35" s="4"/>
-    </row>
-    <row r="36" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="J36" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF36" s="20"/>
+      <c r="AMG36" s="20"/>
+      <c r="AMH36" s="20"/>
+      <c r="AMI36" s="20"/>
+      <c r="AMJ36" s="20"/>
+    </row>
+    <row r="37" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="n">
         <v>31</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E37" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="F37" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J36" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF36" s="4"/>
-      <c r="AMG36" s="4"/>
-      <c r="AMH36" s="4"/>
-      <c r="AMI36" s="4"/>
-      <c r="AMJ36" s="4"/>
-    </row>
-    <row r="37" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="J37" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF37" s="20"/>
+      <c r="AMG37" s="20"/>
+      <c r="AMH37" s="20"/>
+      <c r="AMI37" s="20"/>
+      <c r="AMJ37" s="20"/>
+    </row>
+    <row r="38" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E38" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="F38" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="J38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AMF37" s="4"/>
-      <c r="AMG37" s="4"/>
-      <c r="AMH37" s="4"/>
-      <c r="AMI37" s="4"/>
-      <c r="AMJ37" s="4"/>
-    </row>
-    <row r="38" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="AMF38" s="20"/>
+      <c r="AMG38" s="20"/>
+      <c r="AMH38" s="20"/>
+      <c r="AMI38" s="20"/>
+      <c r="AMJ38" s="20"/>
+    </row>
+    <row r="39" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="18" t="n">
         <v>33</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="18" t="s">
+      <c r="G39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF38" s="4"/>
-      <c r="AMG38" s="4"/>
-      <c r="AMH38" s="4"/>
-      <c r="AMI38" s="4"/>
-      <c r="AMJ38" s="4"/>
-    </row>
-    <row r="39" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="J39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF39" s="20"/>
+      <c r="AMG39" s="20"/>
+      <c r="AMH39" s="20"/>
+      <c r="AMI39" s="20"/>
+      <c r="AMJ39" s="20"/>
+    </row>
+    <row r="40" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="18" t="n">
+        <v>34</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F40" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="3" t="s">
+      <c r="G40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF39" s="4"/>
-      <c r="AMG39" s="4"/>
-      <c r="AMH39" s="4"/>
-      <c r="AMI39" s="4"/>
-      <c r="AMJ39" s="4"/>
-    </row>
-    <row r="40" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="J40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF40" s="20"/>
+      <c r="AMG40" s="20"/>
+      <c r="AMH40" s="20"/>
+      <c r="AMI40" s="20"/>
+      <c r="AMJ40" s="20"/>
+    </row>
+    <row r="41" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="18" t="s">
+      <c r="F41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I41" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J40" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF40" s="4"/>
-      <c r="AMG40" s="4"/>
-      <c r="AMH40" s="4"/>
-      <c r="AMI40" s="4"/>
-      <c r="AMJ40" s="4"/>
-    </row>
-    <row r="41" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="J41" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF41" s="20"/>
+      <c r="AMG41" s="20"/>
+      <c r="AMH41" s="20"/>
+      <c r="AMI41" s="20"/>
+      <c r="AMJ41" s="20"/>
+    </row>
+    <row r="42" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="18" t="n">
         <v>36</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E42" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="3" t="s">
+      <c r="F42" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J41" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AMF41" s="4"/>
-      <c r="AMG41" s="4"/>
-      <c r="AMH41" s="4"/>
-      <c r="AMI41" s="4"/>
-      <c r="AMJ41" s="4"/>
-    </row>
-    <row r="42" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="J42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AMF42" s="20"/>
+      <c r="AMG42" s="20"/>
+      <c r="AMH42" s="20"/>
+      <c r="AMI42" s="20"/>
+      <c r="AMJ42" s="20"/>
+    </row>
+    <row r="43" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="18" t="n">
         <v>37</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E43" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="3" t="s">
+      <c r="F43" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J42" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF42" s="4"/>
-      <c r="AMG42" s="4"/>
-      <c r="AMH42" s="4"/>
-      <c r="AMI42" s="4"/>
-      <c r="AMJ42" s="4"/>
-    </row>
-    <row r="43" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="J43" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF43" s="20"/>
+      <c r="AMG43" s="20"/>
+      <c r="AMH43" s="20"/>
+      <c r="AMI43" s="20"/>
+      <c r="AMJ43" s="20"/>
+    </row>
+    <row r="44" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="18" t="n">
         <v>38</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E44" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="F44" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J43" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF43" s="4"/>
-      <c r="AMG43" s="4"/>
-      <c r="AMH43" s="4"/>
-      <c r="AMI43" s="4"/>
-      <c r="AMJ43" s="4"/>
-    </row>
-    <row r="44" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="J44" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF44" s="20"/>
+      <c r="AMG44" s="20"/>
+      <c r="AMH44" s="20"/>
+      <c r="AMI44" s="20"/>
+      <c r="AMJ44" s="20"/>
+    </row>
+    <row r="45" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="18" t="n">
         <v>39</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E45" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="3" t="s">
+      <c r="F45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J44" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF44" s="4"/>
-      <c r="AMG44" s="4"/>
-      <c r="AMH44" s="4"/>
-      <c r="AMI44" s="4"/>
-      <c r="AMJ44" s="4"/>
-    </row>
-    <row r="45" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="J45" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF45" s="20"/>
+      <c r="AMG45" s="20"/>
+      <c r="AMH45" s="20"/>
+      <c r="AMI45" s="20"/>
+      <c r="AMJ45" s="20"/>
+    </row>
+    <row r="46" s="28" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AMF46" s="30"/>
+      <c r="AMG46" s="30"/>
+      <c r="AMH46" s="30"/>
+      <c r="AMI46" s="30"/>
+      <c r="AMJ46" s="30"/>
+    </row>
+    <row r="47" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="n">
         <v>40</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B47" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D47" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="E47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="J45" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF45" s="4"/>
-      <c r="AMG45" s="4"/>
-      <c r="AMH45" s="4"/>
-      <c r="AMI45" s="4"/>
-      <c r="AMJ45" s="4"/>
-    </row>
-    <row r="46" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="J47" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF47" s="24"/>
+      <c r="AMG47" s="24"/>
+      <c r="AMH47" s="24"/>
+      <c r="AMI47" s="24"/>
+      <c r="AMJ47" s="24"/>
+    </row>
+    <row r="48" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="18" t="n">
         <v>41</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B48" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C48" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D48" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E48" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="F48" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="J48" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AMF46" s="4"/>
-      <c r="AMG46" s="4"/>
-      <c r="AMH46" s="4"/>
-      <c r="AMI46" s="4"/>
-      <c r="AMJ46" s="4"/>
-    </row>
-    <row r="47" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="AMF48" s="20"/>
+      <c r="AMG48" s="20"/>
+      <c r="AMH48" s="20"/>
+      <c r="AMI48" s="20"/>
+      <c r="AMJ48" s="20"/>
+    </row>
+    <row r="49" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="18" t="n">
         <v>42</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C49" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D49" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E49" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="F49" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J47" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF47" s="4"/>
-      <c r="AMG47" s="4"/>
-      <c r="AMH47" s="4"/>
-      <c r="AMI47" s="4"/>
-      <c r="AMJ47" s="4"/>
-    </row>
-    <row r="48" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="J49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF49" s="20"/>
+      <c r="AMG49" s="20"/>
+      <c r="AMH49" s="20"/>
+      <c r="AMI49" s="20"/>
+      <c r="AMJ49" s="20"/>
+    </row>
+    <row r="50" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="n">
         <v>43</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B50" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C50" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D50" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E50" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="3" t="s">
+      <c r="F50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="J48" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF48" s="4"/>
-      <c r="AMG48" s="4"/>
-      <c r="AMH48" s="4"/>
-      <c r="AMI48" s="4"/>
-      <c r="AMJ48" s="4"/>
-    </row>
-    <row r="49" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="J50" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF50" s="24"/>
+      <c r="AMG50" s="24"/>
+      <c r="AMH50" s="24"/>
+      <c r="AMI50" s="24"/>
+      <c r="AMJ50" s="24"/>
+    </row>
+    <row r="51" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="21" t="n">
         <v>44</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B51" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D51" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E51" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="F51" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="J49" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF49" s="4"/>
-      <c r="AMG49" s="4"/>
-      <c r="AMH49" s="4"/>
-      <c r="AMI49" s="4"/>
-      <c r="AMJ49" s="4"/>
-    </row>
-    <row r="50" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="J51" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF51" s="24"/>
+      <c r="AMG51" s="24"/>
+      <c r="AMH51" s="24"/>
+      <c r="AMI51" s="24"/>
+      <c r="AMJ51" s="24"/>
+    </row>
+    <row r="52" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="18" t="n">
         <v>45</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B52" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D52" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E52" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="3" t="s">
+      <c r="F52" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J50" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF50" s="4"/>
-      <c r="AMG50" s="4"/>
-      <c r="AMH50" s="4"/>
-      <c r="AMI50" s="4"/>
-      <c r="AMJ50" s="4"/>
-    </row>
-    <row r="51" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="J52" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF52" s="20"/>
+      <c r="AMG52" s="20"/>
+      <c r="AMH52" s="20"/>
+      <c r="AMI52" s="20"/>
+      <c r="AMJ52" s="20"/>
+    </row>
+    <row r="53" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="18" t="n">
         <v>46</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B53" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C53" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D53" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E53" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="F53" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J51" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF51" s="4"/>
-      <c r="AMG51" s="4"/>
-      <c r="AMH51" s="4"/>
-      <c r="AMI51" s="4"/>
-      <c r="AMJ51" s="4"/>
-    </row>
-    <row r="52" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="J53" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF53" s="20"/>
+      <c r="AMG53" s="20"/>
+      <c r="AMH53" s="20"/>
+      <c r="AMI53" s="20"/>
+      <c r="AMJ53" s="20"/>
+    </row>
+    <row r="54" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="18" t="n">
         <v>47</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D54" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E54" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="F54" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF52" s="4"/>
-      <c r="AMG52" s="4"/>
-      <c r="AMH52" s="4"/>
-      <c r="AMI52" s="4"/>
-      <c r="AMJ52" s="4"/>
-    </row>
-    <row r="53" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="J54" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF54" s="20"/>
+      <c r="AMG54" s="20"/>
+      <c r="AMH54" s="20"/>
+      <c r="AMI54" s="20"/>
+      <c r="AMJ54" s="20"/>
+    </row>
+    <row r="55" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18" t="n">
         <v>48</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D55" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E55" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="F55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J53" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF53" s="4"/>
-      <c r="AMG53" s="4"/>
-      <c r="AMH53" s="4"/>
-      <c r="AMI53" s="4"/>
-      <c r="AMJ53" s="4"/>
-    </row>
-    <row r="54" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="J55" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF55" s="20"/>
+      <c r="AMG55" s="20"/>
+      <c r="AMH55" s="20"/>
+      <c r="AMI55" s="20"/>
+      <c r="AMJ55" s="20"/>
+    </row>
+    <row r="56" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="18" t="n">
         <v>49</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C56" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D56" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E56" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="18" t="s">
+      <c r="F56" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I56" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J54" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="J56" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF54" s="4"/>
-      <c r="AMG54" s="4"/>
-      <c r="AMH54" s="4"/>
-      <c r="AMI54" s="4"/>
-      <c r="AMJ54" s="4"/>
-    </row>
-    <row r="55" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="L56" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF56" s="20"/>
+      <c r="AMG56" s="20"/>
+      <c r="AMH56" s="20"/>
+      <c r="AMI56" s="20"/>
+      <c r="AMJ56" s="20"/>
+    </row>
+    <row r="57" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C57" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D57" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E57" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="18" t="s">
+      <c r="F57" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I57" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="3" t="s">
+      <c r="J57" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF55" s="4"/>
-      <c r="AMG55" s="4"/>
-      <c r="AMH55" s="4"/>
-      <c r="AMI55" s="4"/>
-      <c r="AMJ55" s="4"/>
-    </row>
-    <row r="56" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="L57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF57" s="20"/>
+      <c r="AMG57" s="20"/>
+      <c r="AMH57" s="20"/>
+      <c r="AMI57" s="20"/>
+      <c r="AMJ57" s="20"/>
+    </row>
+    <row r="58" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="n">
         <v>51</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B58" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D58" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E58" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="18" t="s">
+      <c r="F58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I58" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J56" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="J58" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF56" s="4"/>
-      <c r="AMG56" s="4"/>
-      <c r="AMH56" s="4"/>
-      <c r="AMI56" s="4"/>
-      <c r="AMJ56" s="4"/>
-    </row>
-    <row r="57" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="L58" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF58" s="20"/>
+      <c r="AMG58" s="20"/>
+      <c r="AMH58" s="20"/>
+      <c r="AMI58" s="20"/>
+      <c r="AMJ58" s="20"/>
+    </row>
+    <row r="59" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="18" t="n">
         <v>52</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B59" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C59" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D59" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E59" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="18" t="s">
+      <c r="F59" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I59" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J57" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J59" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF57" s="4"/>
-      <c r="AMG57" s="4"/>
-      <c r="AMH57" s="4"/>
-      <c r="AMI57" s="4"/>
-      <c r="AMJ57" s="4"/>
-    </row>
-    <row r="58" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="L59" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF59" s="20"/>
+      <c r="AMG59" s="20"/>
+      <c r="AMH59" s="20"/>
+      <c r="AMI59" s="20"/>
+      <c r="AMJ59" s="20"/>
+    </row>
+    <row r="60" s="28" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K60" s="30"/>
+      <c r="AMF60" s="30"/>
+      <c r="AMG60" s="30"/>
+      <c r="AMH60" s="30"/>
+      <c r="AMI60" s="30"/>
+      <c r="AMJ60" s="30"/>
+    </row>
+    <row r="61" s="31" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="31" t="n">
         <v>53</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B61" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C61" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D61" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E61" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="F61" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J58" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF58" s="4"/>
-      <c r="AMG58" s="4"/>
-      <c r="AMH58" s="4"/>
-      <c r="AMI58" s="4"/>
-      <c r="AMJ58" s="4"/>
-    </row>
-    <row r="59" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
-        <v>54</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF59" s="4"/>
-      <c r="AMG59" s="4"/>
-      <c r="AMH59" s="4"/>
-      <c r="AMI59" s="4"/>
-      <c r="AMJ59" s="4"/>
-    </row>
-    <row r="60" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="J61" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AMF60" s="4"/>
-      <c r="AMG60" s="4"/>
-      <c r="AMH60" s="4"/>
-      <c r="AMI60" s="4"/>
-      <c r="AMJ60" s="4"/>
-    </row>
-    <row r="61" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AMF61" s="4"/>
-      <c r="AMG61" s="4"/>
-      <c r="AMH61" s="4"/>
-      <c r="AMI61" s="4"/>
-      <c r="AMJ61" s="4"/>
+      <c r="L61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF61" s="32"/>
+      <c r="AMG61" s="32"/>
+      <c r="AMH61" s="32"/>
+      <c r="AMI61" s="32"/>
+      <c r="AMJ61" s="32"/>
     </row>
     <row r="62" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="19" t="s">
         <v>34</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J62" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62" s="33" t="s">
         <v>22</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>32</v>
@@ -7234,353 +7226,479 @@
       <c r="AMI62" s="4"/>
       <c r="AMJ62" s="4"/>
     </row>
-    <row r="63" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+    <row r="63" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="18" t="n">
+        <v>55</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AMF63" s="20"/>
+      <c r="AMG63" s="20"/>
+      <c r="AMH63" s="20"/>
+      <c r="AMI63" s="20"/>
+      <c r="AMJ63" s="20"/>
+    </row>
+    <row r="64" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="18" t="n">
+        <v>56</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AMF64" s="20"/>
+      <c r="AMG64" s="20"/>
+      <c r="AMH64" s="20"/>
+      <c r="AMI64" s="20"/>
+      <c r="AMJ64" s="20"/>
+    </row>
+    <row r="65" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="18" t="n">
+        <v>57</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF65" s="20"/>
+      <c r="AMG65" s="20"/>
+      <c r="AMH65" s="20"/>
+      <c r="AMI65" s="20"/>
+      <c r="AMJ65" s="20"/>
+    </row>
+    <row r="66" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="21" t="n">
         <v>58</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B66" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C66" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D66" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E66" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63" s="3" t="s">
+      <c r="F66" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J63" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF63" s="4"/>
-      <c r="AMG63" s="4"/>
-      <c r="AMH63" s="4"/>
-      <c r="AMI63" s="4"/>
-      <c r="AMJ63" s="4"/>
-    </row>
-    <row r="64" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="J66" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF66" s="24"/>
+      <c r="AMG66" s="24"/>
+      <c r="AMH66" s="24"/>
+      <c r="AMI66" s="24"/>
+      <c r="AMJ66" s="24"/>
+    </row>
+    <row r="67" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="21" t="n">
         <v>59</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B67" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C67" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D67" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E67" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" s="3" t="s">
+      <c r="F67" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF64" s="4"/>
-      <c r="AMG64" s="4"/>
-      <c r="AMH64" s="4"/>
-      <c r="AMI64" s="4"/>
-      <c r="AMJ64" s="4"/>
-    </row>
-    <row r="65" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="J67" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF67" s="24"/>
+      <c r="AMG67" s="24"/>
+      <c r="AMH67" s="24"/>
+      <c r="AMI67" s="24"/>
+      <c r="AMJ67" s="24"/>
+    </row>
+    <row r="68" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="18" t="n">
         <v>60</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B68" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C68" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D68" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E68" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="F68" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J65" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF65" s="4"/>
-      <c r="AMG65" s="4"/>
-      <c r="AMH65" s="4"/>
-      <c r="AMI65" s="4"/>
-      <c r="AMJ65" s="4"/>
-    </row>
-    <row r="66" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="J68" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF68" s="20"/>
+      <c r="AMG68" s="20"/>
+      <c r="AMH68" s="20"/>
+      <c r="AMI68" s="20"/>
+      <c r="AMJ68" s="20"/>
+    </row>
+    <row r="69" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="18" t="n">
         <v>61</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B69" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C69" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D69" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E69" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="3" t="s">
+      <c r="F69" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J66" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF66" s="4"/>
-      <c r="AMG66" s="4"/>
-      <c r="AMH66" s="4"/>
-      <c r="AMI66" s="4"/>
-      <c r="AMJ66" s="4"/>
-    </row>
-    <row r="67" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="J69" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF69" s="20"/>
+      <c r="AMG69" s="20"/>
+      <c r="AMH69" s="20"/>
+      <c r="AMI69" s="20"/>
+      <c r="AMJ69" s="20"/>
+    </row>
+    <row r="70" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="18" t="n">
         <v>62</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B70" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C70" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="18" t="s">
+      <c r="D70" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" s="3" t="s">
+      <c r="F70" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J67" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF67" s="4"/>
-      <c r="AMG67" s="4"/>
-      <c r="AMH67" s="4"/>
-      <c r="AMI67" s="4"/>
-      <c r="AMJ67" s="4"/>
-    </row>
-    <row r="68" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="J70" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF70" s="20"/>
+      <c r="AMG70" s="20"/>
+      <c r="AMH70" s="20"/>
+      <c r="AMI70" s="20"/>
+      <c r="AMJ70" s="20"/>
+    </row>
+    <row r="71" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="18" t="n">
         <v>63</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B71" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C71" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D71" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E71" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="3" t="s">
+      <c r="F71" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J68" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF68" s="4"/>
-      <c r="AMG68" s="4"/>
-      <c r="AMH68" s="4"/>
-      <c r="AMI68" s="4"/>
-      <c r="AMJ68" s="4"/>
-    </row>
-    <row r="69" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="J71" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF71" s="20"/>
+      <c r="AMG71" s="20"/>
+      <c r="AMH71" s="20"/>
+      <c r="AMI71" s="20"/>
+      <c r="AMJ71" s="20"/>
+    </row>
+    <row r="72" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="21" t="n">
         <v>64</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B72" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C72" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D72" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E72" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" s="3" t="s">
+      <c r="F72" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J69" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF69" s="4"/>
-      <c r="AMG69" s="4"/>
-      <c r="AMH69" s="4"/>
-      <c r="AMI69" s="4"/>
-      <c r="AMJ69" s="4"/>
-    </row>
-    <row r="70" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="J72" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF72" s="24"/>
+      <c r="AMG72" s="24"/>
+      <c r="AMH72" s="24"/>
+      <c r="AMI72" s="24"/>
+      <c r="AMJ72" s="24"/>
+    </row>
+    <row r="73" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="18" t="n">
         <v>65</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B73" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C73" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D73" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E73" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" s="3" t="s">
+      <c r="F73" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J70" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF70" s="4"/>
-      <c r="AMG70" s="4"/>
-      <c r="AMH70" s="4"/>
-      <c r="AMI70" s="4"/>
-      <c r="AMJ70" s="4"/>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J73" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF73" s="20"/>
+      <c r="AMG73" s="20"/>
+      <c r="AMH73" s="20"/>
+      <c r="AMI73" s="20"/>
+      <c r="AMJ73" s="20"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7601,7 +7719,7 @@
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7617,7 +7735,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7686,19 +7804,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
@@ -7707,7 +7825,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>22</v>
@@ -7724,13 +7842,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
@@ -7745,7 +7863,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -7762,13 +7880,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -7783,7 +7901,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>22</v>
@@ -7800,7 +7918,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -7838,7 +7956,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -7876,7 +7994,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -7913,34 +8031,34 @@
       <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="J12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="13" t="s">
@@ -7957,34 +8075,34 @@
       <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="F13" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="13" t="s">
+      <c r="J13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="13" t="s">
@@ -8001,34 +8119,34 @@
       <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="13" t="s">
+      <c r="J14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="13" t="s">
@@ -8046,7 +8164,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
@@ -8084,7 +8202,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>50</v>
@@ -8122,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -8160,7 +8278,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
@@ -8198,7 +8316,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>78</v>
@@ -8236,7 +8354,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>117</v>
@@ -8263,7 +8381,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>32</v>
@@ -8274,7 +8392,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -8301,7 +8419,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>32</v>
@@ -8312,7 +8430,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
@@ -8339,7 +8457,7 @@
         <v>22</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>32</v>
@@ -8350,7 +8468,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>119</v>
@@ -8387,76 +8505,76 @@
       <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="21" t="s">
+      <c r="F24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="20" t="s">
+      <c r="J24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="F25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="20" t="s">
+      <c r="J25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8464,13 +8582,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>44</v>
@@ -8502,13 +8620,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>44</v>
@@ -8540,7 +8658,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>50</v>
@@ -8567,7 +8685,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>32</v>
@@ -8578,7 +8696,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
@@ -8605,7 +8723,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>32</v>
@@ -8616,7 +8734,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -8654,7 +8772,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>61</v>
@@ -8692,7 +8810,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>46</v>
@@ -8730,7 +8848,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>50</v>
@@ -8768,7 +8886,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>51</v>
@@ -8806,7 +8924,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>25</v>
@@ -8844,7 +8962,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>27</v>
@@ -8882,7 +9000,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>33</v>
@@ -8920,7 +9038,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>35</v>
@@ -8958,7 +9076,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>42</v>
@@ -8995,34 +9113,34 @@
       <c r="A40" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="13" t="s">
+      <c r="F40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J40" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="13" t="s">
+      <c r="J40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L40" s="13" t="s">
@@ -9040,7 +9158,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
@@ -9078,7 +9196,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -9149,7 +9267,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9218,7 +9336,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -9253,7 +9371,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -9288,7 +9406,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -9300,7 +9418,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -9315,7 +9433,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9323,7 +9441,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -9361,7 +9479,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -9399,7 +9517,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -9437,7 +9555,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
@@ -9458,7 +9576,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -9467,7 +9585,7 @@
         <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9475,7 +9593,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
@@ -9496,7 +9614,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>22</v>
@@ -9505,7 +9623,7 @@
         <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9513,7 +9631,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -9534,7 +9652,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -9543,7 +9661,7 @@
         <v>23</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9551,13 +9669,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>48</v>
@@ -9572,7 +9690,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -9589,13 +9707,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>48</v>
@@ -9607,10 +9725,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -9627,13 +9745,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>48</v>
@@ -9648,7 +9766,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -9665,13 +9783,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>48</v>
@@ -9686,7 +9804,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -9703,13 +9821,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>48</v>
@@ -9724,7 +9842,7 @@
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
@@ -9741,13 +9859,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>48</v>
@@ -9762,7 +9880,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>22</v>
@@ -9779,7 +9897,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
@@ -9806,7 +9924,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>32</v>
@@ -9817,13 +9935,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>48</v>
@@ -9855,13 +9973,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>48</v>
@@ -9893,13 +10011,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>48</v>
@@ -9931,13 +10049,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>48</v>
@@ -9969,13 +10087,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>48</v>
@@ -10007,13 +10125,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>48</v>
@@ -10045,13 +10163,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>48</v>
@@ -10083,13 +10201,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>48</v>
@@ -10121,13 +10239,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>48</v>
@@ -10159,13 +10277,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>48</v>
@@ -10226,7 +10344,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10295,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -10330,7 +10448,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -10365,7 +10483,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -10400,13 +10518,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>48</v>
@@ -10435,13 +10553,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>48</v>
@@ -10470,13 +10588,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>48</v>
@@ -10485,10 +10603,10 @@
         <v>19</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>106</v>
@@ -10505,13 +10623,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>48</v>
@@ -10540,7 +10658,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>78</v>
@@ -10575,13 +10693,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>30</v>
@@ -10610,16 +10728,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>20</v>
@@ -10645,13 +10763,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>30</v>
@@ -10711,7 +10829,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10780,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -10818,7 +10936,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -10856,7 +10974,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -10894,7 +11012,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -10932,7 +11050,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -10970,7 +11088,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -11008,13 +11126,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>48</v>
@@ -11046,13 +11164,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>48</v>
@@ -11084,13 +11202,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>48</v>
@@ -11105,7 +11223,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -11122,13 +11240,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>48</v>
@@ -11143,7 +11261,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -11160,19 +11278,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -11181,7 +11299,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -11198,13 +11316,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>85</v>
@@ -11219,7 +11337,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -11236,13 +11354,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -11257,7 +11375,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -11274,13 +11392,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>44</v>
@@ -11295,7 +11413,7 @@
         <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
@@ -11312,13 +11430,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>44</v>
@@ -11333,7 +11451,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>22</v>
@@ -11350,13 +11468,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>44</v>
@@ -11371,7 +11489,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>22</v>
@@ -11388,13 +11506,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>44</v>
@@ -11409,7 +11527,7 @@
         <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>22</v>
@@ -11426,13 +11544,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>44</v>
@@ -11447,7 +11565,7 @@
         <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>22</v>
@@ -11464,13 +11582,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>44</v>
@@ -11485,7 +11603,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>22</v>
@@ -11502,16 +11620,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
@@ -11523,7 +11641,7 @@
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>22</v>
@@ -11538,16 +11656,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
@@ -11559,7 +11677,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>22</v>
@@ -11574,16 +11692,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
@@ -11595,7 +11713,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>22</v>
@@ -11610,16 +11728,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
@@ -11631,7 +11749,7 @@
         <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>22</v>
@@ -11646,16 +11764,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
@@ -11667,7 +11785,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>22</v>
@@ -11695,7 +11813,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -11717,7 +11835,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11783,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -11821,13 +11939,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
@@ -11856,13 +11974,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -11891,16 +12009,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -11912,16 +12030,16 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11929,16 +12047,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -11950,16 +12068,16 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11967,13 +12085,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>44</v>
@@ -11988,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>22</v>
@@ -12003,13 +12121,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>44</v>
@@ -12024,7 +12142,7 @@
         <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -12039,13 +12157,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>44</v>
@@ -12060,7 +12178,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>22</v>
@@ -12075,13 +12193,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>44</v>
@@ -12096,7 +12214,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -12111,13 +12229,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>44</v>
@@ -12132,7 +12250,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>

--- a/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
+++ b/ATLAS-inventory/CORDEX_simulations_ATLAS.xlsx
@@ -5,20 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2.CAM-final" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="3.NAM-final" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="4.EUR" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="5.AFR" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="5.AFR-final" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="6.WAS-final" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="7.EAS-final" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="9.AUS-final" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="10.ANT-final" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="11.ARC-final" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="14.SEA" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="14.SEA-final" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="217">
   <si>
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
@@ -338,6 +338,27 @@
     <t xml:space="preserve">DOI:10.1002/2016JD026017</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Discarded since more than one run for the same simulation</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">MPI-ESM-LR_r3i1p1</t>
   </si>
   <si>
@@ -356,6 +377,9 @@
     <t xml:space="preserve">Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php</t>
   </si>
   <si>
+    <t xml:space="preserve">Discarded since no historical scenario available </t>
+  </si>
+  <si>
     <t xml:space="preserve">ALADIN53_v1</t>
   </si>
   <si>
@@ -624,6 +648,9 @@
   </si>
   <si>
     <t xml:space="preserve">ANT-44i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discarded due to an error in the sea-ice</t>
   </si>
   <si>
     <t xml:space="preserve">11: Arctic (ARC): https://cordex.org/domains/region-11-arctic/  </t>
@@ -741,6 +768,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFED1C24"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -805,7 +833,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -878,15 +906,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -906,6 +926,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -918,23 +942,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1026,7 +1034,7 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1981,7 +1989,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2047,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -2085,13 +2093,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -2106,7 +2114,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -2123,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -2161,13 +2169,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>48</v>
@@ -2199,7 +2207,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -2237,13 +2245,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>48</v>
@@ -2275,7 +2283,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2313,7 +2321,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -2351,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -2378,7 +2386,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>32</v>
@@ -2389,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -2416,7 +2424,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>32</v>
@@ -2427,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2454,7 +2462,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>32</v>
@@ -2478,8 +2486,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2497,7 +2505,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2563,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -2595,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -2627,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -2659,10 +2667,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
@@ -2680,16 +2688,16 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2697,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>40</v>
@@ -2718,13 +2726,13 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2732,7 +2740,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -2753,16 +2761,16 @@
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2770,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>42</v>
@@ -2778,26 +2786,26 @@
       <c r="D12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="J12" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AMF12" s="15"/>
       <c r="AMG12" s="15"/>
@@ -2810,7 +2818,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -2837,7 +2845,7 @@
         <v>22</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>32</v>
@@ -2848,7 +2856,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>61</v>
@@ -2869,16 +2877,16 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2886,7 +2894,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -2901,22 +2909,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2924,7 +2932,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -2956,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
@@ -2988,7 +2996,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -4774,8 +4782,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4861,2331 +4869,2397 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="n">
+    <row r="6" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF6" s="20"/>
-      <c r="AMG6" s="20"/>
-      <c r="AMH6" s="20"/>
-      <c r="AMI6" s="20"/>
-      <c r="AMJ6" s="20"/>
-    </row>
-    <row r="7" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="n">
+      <c r="L6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF6" s="4"/>
+      <c r="AMG6" s="4"/>
+      <c r="AMH6" s="4"/>
+      <c r="AMI6" s="4"/>
+      <c r="AMJ6" s="4"/>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="18" t="s">
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF7" s="20"/>
-      <c r="AMG7" s="20"/>
-      <c r="AMH7" s="20"/>
-      <c r="AMI7" s="20"/>
-      <c r="AMJ7" s="20"/>
-    </row>
-    <row r="8" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="n">
+      <c r="L7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF7" s="4"/>
+      <c r="AMG7" s="4"/>
+      <c r="AMH7" s="4"/>
+      <c r="AMI7" s="4"/>
+      <c r="AMJ7" s="4"/>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="18" t="s">
+      <c r="J8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF8" s="20"/>
-      <c r="AMG8" s="20"/>
-      <c r="AMH8" s="20"/>
-      <c r="AMI8" s="20"/>
-      <c r="AMJ8" s="20"/>
-    </row>
-    <row r="9" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="L8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF8" s="4"/>
+      <c r="AMG8" s="4"/>
+      <c r="AMH8" s="4"/>
+      <c r="AMI8" s="4"/>
+      <c r="AMJ8" s="4"/>
+    </row>
+    <row r="9" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="21" t="s">
+      <c r="F9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="21" t="s">
+      <c r="J9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF9" s="24"/>
-      <c r="AMG9" s="24"/>
-      <c r="AMH9" s="24"/>
-      <c r="AMI9" s="24"/>
-      <c r="AMJ9" s="24"/>
-    </row>
-    <row r="10" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+      <c r="L9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMF9" s="22"/>
+      <c r="AMG9" s="22"/>
+      <c r="AMH9" s="22"/>
+      <c r="AMI9" s="22"/>
+      <c r="AMJ9" s="22"/>
+    </row>
+    <row r="10" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="AMF10" s="22"/>
+      <c r="AMG10" s="22"/>
+      <c r="AMH10" s="22"/>
+      <c r="AMI10" s="22"/>
+      <c r="AMJ10" s="22"/>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF11" s="4"/>
+      <c r="AMG11" s="4"/>
+      <c r="AMH11" s="4"/>
+      <c r="AMI11" s="4"/>
+      <c r="AMJ11" s="4"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AMF12" s="4"/>
+      <c r="AMG12" s="4"/>
+      <c r="AMH12" s="4"/>
+      <c r="AMI12" s="4"/>
+      <c r="AMJ12" s="4"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="21" t="s">
+      <c r="F13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF13" s="4"/>
+      <c r="AMG13" s="4"/>
+      <c r="AMH13" s="4"/>
+      <c r="AMI13" s="4"/>
+      <c r="AMJ13" s="4"/>
+    </row>
+    <row r="14" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AMF14" s="22"/>
+      <c r="AMG14" s="22"/>
+      <c r="AMH14" s="22"/>
+      <c r="AMI14" s="22"/>
+      <c r="AMJ14" s="22"/>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF15" s="4"/>
+      <c r="AMG15" s="4"/>
+      <c r="AMH15" s="4"/>
+      <c r="AMI15" s="4"/>
+      <c r="AMJ15" s="4"/>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF16" s="4"/>
+      <c r="AMG16" s="4"/>
+      <c r="AMH16" s="4"/>
+      <c r="AMI16" s="4"/>
+      <c r="AMJ16" s="4"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AMF17" s="4"/>
+      <c r="AMG17" s="4"/>
+      <c r="AMH17" s="4"/>
+      <c r="AMI17" s="4"/>
+      <c r="AMJ17" s="4"/>
+    </row>
+    <row r="18" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AMF18" s="4"/>
+      <c r="AMG18" s="4"/>
+      <c r="AMH18" s="4"/>
+      <c r="AMI18" s="4"/>
+      <c r="AMJ18" s="4"/>
+    </row>
+    <row r="19" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF19" s="4"/>
+      <c r="AMG19" s="4"/>
+      <c r="AMH19" s="4"/>
+      <c r="AMI19" s="4"/>
+      <c r="AMJ19" s="4"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF20" s="4"/>
+      <c r="AMG20" s="4"/>
+      <c r="AMH20" s="4"/>
+      <c r="AMI20" s="4"/>
+      <c r="AMJ20" s="4"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF21" s="4"/>
+      <c r="AMG21" s="4"/>
+      <c r="AMH21" s="4"/>
+      <c r="AMI21" s="4"/>
+      <c r="AMJ21" s="4"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AMF22" s="4"/>
+      <c r="AMG22" s="4"/>
+      <c r="AMH22" s="4"/>
+      <c r="AMI22" s="4"/>
+      <c r="AMJ22" s="4"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF23" s="4"/>
+      <c r="AMG23" s="4"/>
+      <c r="AMH23" s="4"/>
+      <c r="AMI23" s="4"/>
+      <c r="AMJ23" s="4"/>
+    </row>
+    <row r="24" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMF24" s="22"/>
+      <c r="AMG24" s="22"/>
+      <c r="AMH24" s="22"/>
+      <c r="AMI24" s="22"/>
+      <c r="AMJ24" s="22"/>
+    </row>
+    <row r="25" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF25" s="4"/>
+      <c r="AMG25" s="4"/>
+      <c r="AMH25" s="4"/>
+      <c r="AMI25" s="4"/>
+      <c r="AMJ25" s="4"/>
+    </row>
+    <row r="26" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF26" s="4"/>
+      <c r="AMG26" s="4"/>
+      <c r="AMH26" s="4"/>
+      <c r="AMI26" s="4"/>
+      <c r="AMJ26" s="4"/>
+    </row>
+    <row r="27" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF27" s="4"/>
+      <c r="AMG27" s="4"/>
+      <c r="AMH27" s="4"/>
+      <c r="AMI27" s="4"/>
+      <c r="AMJ27" s="4"/>
+    </row>
+    <row r="28" s="24" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AMF28" s="25"/>
+      <c r="AMG28" s="25"/>
+      <c r="AMH28" s="25"/>
+      <c r="AMI28" s="25"/>
+      <c r="AMJ28" s="25"/>
+    </row>
+    <row r="29" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF29" s="4"/>
+      <c r="AMG29" s="4"/>
+      <c r="AMH29" s="4"/>
+      <c r="AMI29" s="4"/>
+      <c r="AMJ29" s="4"/>
+    </row>
+    <row r="30" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AMF30" s="22"/>
+      <c r="AMG30" s="22"/>
+      <c r="AMH30" s="22"/>
+      <c r="AMI30" s="22"/>
+      <c r="AMJ30" s="22"/>
+    </row>
+    <row r="31" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF31" s="4"/>
+      <c r="AMG31" s="4"/>
+      <c r="AMH31" s="4"/>
+      <c r="AMI31" s="4"/>
+      <c r="AMJ31" s="4"/>
+    </row>
+    <row r="32" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF32" s="4"/>
+      <c r="AMG32" s="4"/>
+      <c r="AMH32" s="4"/>
+      <c r="AMI32" s="4"/>
+      <c r="AMJ32" s="4"/>
+    </row>
+    <row r="33" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AMF33" s="22"/>
+      <c r="AMG33" s="22"/>
+      <c r="AMH33" s="22"/>
+      <c r="AMI33" s="22"/>
+      <c r="AMJ33" s="22"/>
+    </row>
+    <row r="34" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AMF34" s="22"/>
+      <c r="AMG34" s="22"/>
+      <c r="AMH34" s="22"/>
+      <c r="AMI34" s="22"/>
+      <c r="AMJ34" s="22"/>
+    </row>
+    <row r="35" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF10" s="24"/>
-      <c r="AMG10" s="24"/>
-      <c r="AMH10" s="24"/>
-      <c r="AMI10" s="24"/>
-      <c r="AMJ10" s="24"/>
-    </row>
-    <row r="11" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="D35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF35" s="4"/>
+      <c r="AMG35" s="4"/>
+      <c r="AMH35" s="4"/>
+      <c r="AMI35" s="4"/>
+      <c r="AMJ35" s="4"/>
+    </row>
+    <row r="36" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF11" s="20"/>
-      <c r="AMG11" s="20"/>
-      <c r="AMH11" s="20"/>
-      <c r="AMI11" s="20"/>
-      <c r="AMJ11" s="20"/>
-    </row>
-    <row r="12" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="F36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF36" s="4"/>
+      <c r="AMG36" s="4"/>
+      <c r="AMH36" s="4"/>
+      <c r="AMI36" s="4"/>
+      <c r="AMJ36" s="4"/>
+    </row>
+    <row r="37" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF37" s="4"/>
+      <c r="AMG37" s="4"/>
+      <c r="AMH37" s="4"/>
+      <c r="AMI37" s="4"/>
+      <c r="AMJ37" s="4"/>
+    </row>
+    <row r="38" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AMF38" s="4"/>
+      <c r="AMG38" s="4"/>
+      <c r="AMH38" s="4"/>
+      <c r="AMI38" s="4"/>
+      <c r="AMJ38" s="4"/>
+    </row>
+    <row r="39" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF39" s="4"/>
+      <c r="AMG39" s="4"/>
+      <c r="AMH39" s="4"/>
+      <c r="AMI39" s="4"/>
+      <c r="AMJ39" s="4"/>
+    </row>
+    <row r="40" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF40" s="4"/>
+      <c r="AMG40" s="4"/>
+      <c r="AMH40" s="4"/>
+      <c r="AMI40" s="4"/>
+      <c r="AMJ40" s="4"/>
+    </row>
+    <row r="41" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF41" s="4"/>
+      <c r="AMG41" s="4"/>
+      <c r="AMH41" s="4"/>
+      <c r="AMI41" s="4"/>
+      <c r="AMJ41" s="4"/>
+    </row>
+    <row r="42" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AMF42" s="4"/>
+      <c r="AMG42" s="4"/>
+      <c r="AMH42" s="4"/>
+      <c r="AMI42" s="4"/>
+      <c r="AMJ42" s="4"/>
+    </row>
+    <row r="43" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF43" s="4"/>
+      <c r="AMG43" s="4"/>
+      <c r="AMH43" s="4"/>
+      <c r="AMI43" s="4"/>
+      <c r="AMJ43" s="4"/>
+    </row>
+    <row r="44" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF44" s="4"/>
+      <c r="AMG44" s="4"/>
+      <c r="AMH44" s="4"/>
+      <c r="AMI44" s="4"/>
+      <c r="AMJ44" s="4"/>
+    </row>
+    <row r="45" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF45" s="4"/>
+      <c r="AMG45" s="4"/>
+      <c r="AMH45" s="4"/>
+      <c r="AMI45" s="4"/>
+      <c r="AMJ45" s="4"/>
+    </row>
+    <row r="46" s="23" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AMF46" s="27"/>
+      <c r="AMG46" s="27"/>
+      <c r="AMH46" s="27"/>
+      <c r="AMI46" s="27"/>
+      <c r="AMJ46" s="27"/>
+    </row>
+    <row r="47" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AMF47" s="22"/>
+      <c r="AMG47" s="22"/>
+      <c r="AMH47" s="22"/>
+      <c r="AMI47" s="22"/>
+      <c r="AMJ47" s="22"/>
+    </row>
+    <row r="48" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AMF12" s="20"/>
-      <c r="AMG12" s="20"/>
-      <c r="AMH12" s="20"/>
-      <c r="AMI12" s="20"/>
-      <c r="AMJ12" s="20"/>
-    </row>
-    <row r="13" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="F48" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AMF48" s="4"/>
+      <c r="AMG48" s="4"/>
+      <c r="AMH48" s="4"/>
+      <c r="AMI48" s="4"/>
+      <c r="AMJ48" s="4"/>
+    </row>
+    <row r="49" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF13" s="20"/>
-      <c r="AMG13" s="20"/>
-      <c r="AMH13" s="20"/>
-      <c r="AMI13" s="20"/>
-      <c r="AMJ13" s="20"/>
-    </row>
-    <row r="14" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="D49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF49" s="4"/>
+      <c r="AMG49" s="4"/>
+      <c r="AMH49" s="4"/>
+      <c r="AMI49" s="4"/>
+      <c r="AMJ49" s="4"/>
+    </row>
+    <row r="50" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF14" s="24"/>
-      <c r="AMG14" s="24"/>
-      <c r="AMH14" s="24"/>
-      <c r="AMI14" s="24"/>
-      <c r="AMJ14" s="24"/>
-    </row>
-    <row r="15" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="C50" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMF50" s="22"/>
+      <c r="AMG50" s="22"/>
+      <c r="AMH50" s="22"/>
+      <c r="AMI50" s="22"/>
+      <c r="AMJ50" s="22"/>
+    </row>
+    <row r="51" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C51" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMF51" s="22"/>
+      <c r="AMG51" s="22"/>
+      <c r="AMH51" s="22"/>
+      <c r="AMI51" s="22"/>
+      <c r="AMJ51" s="22"/>
+    </row>
+    <row r="52" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF52" s="4"/>
+      <c r="AMG52" s="4"/>
+      <c r="AMH52" s="4"/>
+      <c r="AMI52" s="4"/>
+      <c r="AMJ52" s="4"/>
+    </row>
+    <row r="53" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF15" s="20"/>
-      <c r="AMG15" s="20"/>
-      <c r="AMH15" s="20"/>
-      <c r="AMI15" s="20"/>
-      <c r="AMJ15" s="20"/>
-    </row>
-    <row r="16" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="D53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF53" s="4"/>
+      <c r="AMG53" s="4"/>
+      <c r="AMH53" s="4"/>
+      <c r="AMI53" s="4"/>
+      <c r="AMJ53" s="4"/>
+    </row>
+    <row r="54" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF16" s="20"/>
-      <c r="AMG16" s="20"/>
-      <c r="AMH16" s="20"/>
-      <c r="AMI16" s="20"/>
-      <c r="AMJ16" s="20"/>
-    </row>
-    <row r="17" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="D54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF54" s="4"/>
+      <c r="AMG54" s="4"/>
+      <c r="AMH54" s="4"/>
+      <c r="AMI54" s="4"/>
+      <c r="AMJ54" s="4"/>
+    </row>
+    <row r="55" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF55" s="4"/>
+      <c r="AMG55" s="4"/>
+      <c r="AMH55" s="4"/>
+      <c r="AMI55" s="4"/>
+      <c r="AMJ55" s="4"/>
+    </row>
+    <row r="56" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF56" s="4"/>
+      <c r="AMG56" s="4"/>
+      <c r="AMH56" s="4"/>
+      <c r="AMI56" s="4"/>
+      <c r="AMJ56" s="4"/>
+    </row>
+    <row r="57" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF57" s="4"/>
+      <c r="AMG57" s="4"/>
+      <c r="AMH57" s="4"/>
+      <c r="AMI57" s="4"/>
+      <c r="AMJ57" s="4"/>
+    </row>
+    <row r="58" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF58" s="4"/>
+      <c r="AMG58" s="4"/>
+      <c r="AMH58" s="4"/>
+      <c r="AMI58" s="4"/>
+      <c r="AMJ58" s="4"/>
+    </row>
+    <row r="59" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF59" s="4"/>
+      <c r="AMG59" s="4"/>
+      <c r="AMH59" s="4"/>
+      <c r="AMI59" s="4"/>
+      <c r="AMJ59" s="4"/>
+    </row>
+    <row r="60" s="23" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="23" t="n">
+        <v>55</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="D60" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" s="27"/>
+      <c r="AMF60" s="27"/>
+      <c r="AMG60" s="27"/>
+      <c r="AMH60" s="27"/>
+      <c r="AMI60" s="27"/>
+      <c r="AMJ60" s="27"/>
+    </row>
+    <row r="61" s="8" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AMF17" s="20"/>
-      <c r="AMG17" s="20"/>
-      <c r="AMH17" s="20"/>
-      <c r="AMI17" s="20"/>
-      <c r="AMJ17" s="20"/>
-    </row>
-    <row r="18" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AMF18" s="20"/>
-      <c r="AMG18" s="20"/>
-      <c r="AMH18" s="20"/>
-      <c r="AMI18" s="20"/>
-      <c r="AMJ18" s="20"/>
-    </row>
-    <row r="19" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF19" s="20"/>
-      <c r="AMG19" s="20"/>
-      <c r="AMH19" s="20"/>
-      <c r="AMI19" s="20"/>
-      <c r="AMJ19" s="20"/>
-    </row>
-    <row r="20" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF20" s="20"/>
-      <c r="AMG20" s="20"/>
-      <c r="AMH20" s="20"/>
-      <c r="AMI20" s="20"/>
-      <c r="AMJ20" s="20"/>
-    </row>
-    <row r="21" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF21" s="20"/>
-      <c r="AMG21" s="20"/>
-      <c r="AMH21" s="20"/>
-      <c r="AMI21" s="20"/>
-      <c r="AMJ21" s="20"/>
-    </row>
-    <row r="22" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AMF22" s="20"/>
-      <c r="AMG22" s="20"/>
-      <c r="AMH22" s="20"/>
-      <c r="AMI22" s="20"/>
-      <c r="AMJ22" s="20"/>
-    </row>
-    <row r="23" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF23" s="20"/>
-      <c r="AMG23" s="20"/>
-      <c r="AMH23" s="20"/>
-      <c r="AMI23" s="20"/>
-      <c r="AMJ23" s="20"/>
-    </row>
-    <row r="24" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF24" s="24"/>
-      <c r="AMG24" s="24"/>
-      <c r="AMH24" s="24"/>
-      <c r="AMI24" s="24"/>
-      <c r="AMJ24" s="24"/>
-    </row>
-    <row r="25" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF25" s="20"/>
-      <c r="AMG25" s="20"/>
-      <c r="AMH25" s="20"/>
-      <c r="AMI25" s="20"/>
-      <c r="AMJ25" s="20"/>
-    </row>
-    <row r="26" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF26" s="20"/>
-      <c r="AMG26" s="20"/>
-      <c r="AMH26" s="20"/>
-      <c r="AMI26" s="20"/>
-      <c r="AMJ26" s="20"/>
-    </row>
-    <row r="27" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF27" s="20"/>
-      <c r="AMG27" s="20"/>
-      <c r="AMH27" s="20"/>
-      <c r="AMI27" s="20"/>
-      <c r="AMJ27" s="20"/>
-    </row>
-    <row r="28" s="25" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="AMF28" s="26"/>
-      <c r="AMG28" s="26"/>
-      <c r="AMH28" s="26"/>
-      <c r="AMI28" s="26"/>
-      <c r="AMJ28" s="26"/>
-    </row>
-    <row r="29" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="n">
-        <v>23</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF29" s="20"/>
-      <c r="AMG29" s="20"/>
-      <c r="AMH29" s="20"/>
-      <c r="AMI29" s="20"/>
-      <c r="AMJ29" s="20"/>
-    </row>
-    <row r="30" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
-        <v>24</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF30" s="24"/>
-      <c r="AMG30" s="24"/>
-      <c r="AMH30" s="24"/>
-      <c r="AMI30" s="24"/>
-      <c r="AMJ30" s="24"/>
-    </row>
-    <row r="31" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="n">
-        <v>25</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF31" s="20"/>
-      <c r="AMG31" s="20"/>
-      <c r="AMH31" s="20"/>
-      <c r="AMI31" s="20"/>
-      <c r="AMJ31" s="20"/>
-    </row>
-    <row r="32" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="n">
-        <v>26</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF32" s="20"/>
-      <c r="AMG32" s="20"/>
-      <c r="AMH32" s="20"/>
-      <c r="AMI32" s="20"/>
-      <c r="AMJ32" s="20"/>
-    </row>
-    <row r="33" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="n">
-        <v>27</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF33" s="24"/>
-      <c r="AMG33" s="24"/>
-      <c r="AMH33" s="24"/>
-      <c r="AMI33" s="24"/>
-      <c r="AMJ33" s="24"/>
-    </row>
-    <row r="34" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF34" s="24"/>
-      <c r="AMG34" s="24"/>
-      <c r="AMH34" s="24"/>
-      <c r="AMI34" s="24"/>
-      <c r="AMJ34" s="24"/>
-    </row>
-    <row r="35" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="n">
-        <v>29</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF35" s="20"/>
-      <c r="AMG35" s="20"/>
-      <c r="AMH35" s="20"/>
-      <c r="AMI35" s="20"/>
-      <c r="AMJ35" s="20"/>
-    </row>
-    <row r="36" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="n">
-        <v>30</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF36" s="20"/>
-      <c r="AMG36" s="20"/>
-      <c r="AMH36" s="20"/>
-      <c r="AMI36" s="20"/>
-      <c r="AMJ36" s="20"/>
-    </row>
-    <row r="37" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="n">
-        <v>31</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF37" s="20"/>
-      <c r="AMG37" s="20"/>
-      <c r="AMH37" s="20"/>
-      <c r="AMI37" s="20"/>
-      <c r="AMJ37" s="20"/>
-    </row>
-    <row r="38" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="n">
-        <v>32</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AMF38" s="20"/>
-      <c r="AMG38" s="20"/>
-      <c r="AMH38" s="20"/>
-      <c r="AMI38" s="20"/>
-      <c r="AMJ38" s="20"/>
-    </row>
-    <row r="39" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18" t="n">
-        <v>33</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF39" s="20"/>
-      <c r="AMG39" s="20"/>
-      <c r="AMH39" s="20"/>
-      <c r="AMI39" s="20"/>
-      <c r="AMJ39" s="20"/>
-    </row>
-    <row r="40" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18" t="n">
-        <v>34</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF40" s="20"/>
-      <c r="AMG40" s="20"/>
-      <c r="AMH40" s="20"/>
-      <c r="AMI40" s="20"/>
-      <c r="AMJ40" s="20"/>
-    </row>
-    <row r="41" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="n">
-        <v>35</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF41" s="20"/>
-      <c r="AMG41" s="20"/>
-      <c r="AMH41" s="20"/>
-      <c r="AMI41" s="20"/>
-      <c r="AMJ41" s="20"/>
-    </row>
-    <row r="42" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="n">
-        <v>36</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AMF42" s="20"/>
-      <c r="AMG42" s="20"/>
-      <c r="AMH42" s="20"/>
-      <c r="AMI42" s="20"/>
-      <c r="AMJ42" s="20"/>
-    </row>
-    <row r="43" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="n">
-        <v>37</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF43" s="20"/>
-      <c r="AMG43" s="20"/>
-      <c r="AMH43" s="20"/>
-      <c r="AMI43" s="20"/>
-      <c r="AMJ43" s="20"/>
-    </row>
-    <row r="44" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="n">
-        <v>38</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF44" s="20"/>
-      <c r="AMG44" s="20"/>
-      <c r="AMH44" s="20"/>
-      <c r="AMI44" s="20"/>
-      <c r="AMJ44" s="20"/>
-    </row>
-    <row r="45" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="n">
-        <v>39</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF45" s="20"/>
-      <c r="AMG45" s="20"/>
-      <c r="AMH45" s="20"/>
-      <c r="AMI45" s="20"/>
-      <c r="AMJ45" s="20"/>
-    </row>
-    <row r="46" s="28" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="AMF46" s="30"/>
-      <c r="AMG46" s="30"/>
-      <c r="AMH46" s="30"/>
-      <c r="AMI46" s="30"/>
-      <c r="AMJ46" s="30"/>
-    </row>
-    <row r="47" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF47" s="24"/>
-      <c r="AMG47" s="24"/>
-      <c r="AMH47" s="24"/>
-      <c r="AMI47" s="24"/>
-      <c r="AMJ47" s="24"/>
-    </row>
-    <row r="48" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="n">
-        <v>41</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L48" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AMF48" s="20"/>
-      <c r="AMG48" s="20"/>
-      <c r="AMH48" s="20"/>
-      <c r="AMI48" s="20"/>
-      <c r="AMJ48" s="20"/>
-    </row>
-    <row r="49" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="n">
-        <v>42</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF49" s="20"/>
-      <c r="AMG49" s="20"/>
-      <c r="AMH49" s="20"/>
-      <c r="AMI49" s="20"/>
-      <c r="AMJ49" s="20"/>
-    </row>
-    <row r="50" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="n">
-        <v>43</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L50" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF50" s="24"/>
-      <c r="AMG50" s="24"/>
-      <c r="AMH50" s="24"/>
-      <c r="AMI50" s="24"/>
-      <c r="AMJ50" s="24"/>
-    </row>
-    <row r="51" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="n">
-        <v>44</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF51" s="24"/>
-      <c r="AMG51" s="24"/>
-      <c r="AMH51" s="24"/>
-      <c r="AMI51" s="24"/>
-      <c r="AMJ51" s="24"/>
-    </row>
-    <row r="52" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="n">
+      <c r="F61" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF52" s="20"/>
-      <c r="AMG52" s="20"/>
-      <c r="AMH52" s="20"/>
-      <c r="AMI52" s="20"/>
-      <c r="AMJ52" s="20"/>
-    </row>
-    <row r="53" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="n">
-        <v>46</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF53" s="20"/>
-      <c r="AMG53" s="20"/>
-      <c r="AMH53" s="20"/>
-      <c r="AMI53" s="20"/>
-      <c r="AMJ53" s="20"/>
-    </row>
-    <row r="54" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="n">
-        <v>47</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF54" s="20"/>
-      <c r="AMG54" s="20"/>
-      <c r="AMH54" s="20"/>
-      <c r="AMI54" s="20"/>
-      <c r="AMJ54" s="20"/>
-    </row>
-    <row r="55" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="n">
-        <v>48</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF55" s="20"/>
-      <c r="AMG55" s="20"/>
-      <c r="AMH55" s="20"/>
-      <c r="AMI55" s="20"/>
-      <c r="AMJ55" s="20"/>
-    </row>
-    <row r="56" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="n">
-        <v>49</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="L56" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF56" s="20"/>
-      <c r="AMG56" s="20"/>
-      <c r="AMH56" s="20"/>
-      <c r="AMI56" s="20"/>
-      <c r="AMJ56" s="20"/>
-    </row>
-    <row r="57" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="n">
-        <v>50</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF57" s="20"/>
-      <c r="AMG57" s="20"/>
-      <c r="AMH57" s="20"/>
-      <c r="AMI57" s="20"/>
-      <c r="AMJ57" s="20"/>
-    </row>
-    <row r="58" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="n">
-        <v>51</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J58" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF58" s="20"/>
-      <c r="AMG58" s="20"/>
-      <c r="AMH58" s="20"/>
-      <c r="AMI58" s="20"/>
-      <c r="AMJ58" s="20"/>
-    </row>
-    <row r="59" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="n">
-        <v>52</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="L59" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF59" s="20"/>
-      <c r="AMG59" s="20"/>
-      <c r="AMH59" s="20"/>
-      <c r="AMI59" s="20"/>
-      <c r="AMJ59" s="20"/>
-    </row>
-    <row r="60" s="28" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="K60" s="30"/>
-      <c r="AMF60" s="30"/>
-      <c r="AMG60" s="30"/>
-      <c r="AMH60" s="30"/>
-      <c r="AMI60" s="30"/>
-      <c r="AMJ60" s="30"/>
-    </row>
-    <row r="61" s="31" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="31" t="n">
-        <v>53</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J61" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="L61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF61" s="32"/>
-      <c r="AMG61" s="32"/>
-      <c r="AMH61" s="32"/>
-      <c r="AMI61" s="32"/>
-      <c r="AMJ61" s="32"/>
+      <c r="J61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF61" s="9"/>
+      <c r="AMG61" s="9"/>
+      <c r="AMH61" s="9"/>
+      <c r="AMI61" s="9"/>
+      <c r="AMJ61" s="9"/>
     </row>
     <row r="62" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>94</v>
@@ -7196,26 +7270,26 @@
       <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" s="19" t="s">
+      <c r="F62" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J62" s="33" t="s">
+      <c r="J62" s="28" t="s">
         <v>22</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>32</v>
@@ -7226,478 +7300,478 @@
       <c r="AMI62" s="4"/>
       <c r="AMJ62" s="4"/>
     </row>
-    <row r="63" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="n">
-        <v>55</v>
-      </c>
-      <c r="B63" s="18" t="s">
+    <row r="63" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F63" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="J63" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AMF63" s="20"/>
-      <c r="AMG63" s="20"/>
-      <c r="AMH63" s="20"/>
-      <c r="AMI63" s="20"/>
-      <c r="AMJ63" s="20"/>
-    </row>
-    <row r="64" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18" t="n">
-        <v>56</v>
-      </c>
-      <c r="B64" s="18" t="s">
+      <c r="F63" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AMF63" s="4"/>
+      <c r="AMG63" s="4"/>
+      <c r="AMH63" s="4"/>
+      <c r="AMI63" s="4"/>
+      <c r="AMJ63" s="4"/>
+    </row>
+    <row r="64" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" s="18" t="s">
+      <c r="F64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L64" s="18" t="s">
+      <c r="J64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AMF64" s="20"/>
-      <c r="AMG64" s="20"/>
-      <c r="AMH64" s="20"/>
-      <c r="AMI64" s="20"/>
-      <c r="AMJ64" s="20"/>
-    </row>
-    <row r="65" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18" t="n">
-        <v>57</v>
-      </c>
-      <c r="B65" s="18" t="s">
+      <c r="AMF64" s="4"/>
+      <c r="AMG64" s="4"/>
+      <c r="AMH64" s="4"/>
+      <c r="AMI64" s="4"/>
+      <c r="AMJ64" s="4"/>
+    </row>
+    <row r="65" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I65" s="18" t="s">
+      <c r="F65" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J65" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L65" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF65" s="20"/>
-      <c r="AMG65" s="20"/>
-      <c r="AMH65" s="20"/>
-      <c r="AMI65" s="20"/>
-      <c r="AMJ65" s="20"/>
-    </row>
-    <row r="66" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="21" t="n">
-        <v>58</v>
-      </c>
-      <c r="B66" s="21" t="s">
+      <c r="J65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF65" s="4"/>
+      <c r="AMG65" s="4"/>
+      <c r="AMH65" s="4"/>
+      <c r="AMI65" s="4"/>
+      <c r="AMJ65" s="4"/>
+    </row>
+    <row r="66" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="21" t="s">
+      <c r="C66" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" s="21" t="s">
+      <c r="F66" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J66" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L66" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF66" s="24"/>
-      <c r="AMG66" s="24"/>
-      <c r="AMH66" s="24"/>
-      <c r="AMI66" s="24"/>
-      <c r="AMJ66" s="24"/>
-    </row>
-    <row r="67" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="21" t="n">
+      <c r="J66" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMF66" s="22"/>
+      <c r="AMG66" s="22"/>
+      <c r="AMH66" s="22"/>
+      <c r="AMI66" s="22"/>
+      <c r="AMJ66" s="22"/>
+    </row>
+    <row r="67" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="E67" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMF67" s="22"/>
+      <c r="AMG67" s="22"/>
+      <c r="AMH67" s="22"/>
+      <c r="AMI67" s="22"/>
+      <c r="AMJ67" s="22"/>
+    </row>
+    <row r="68" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="21" t="s">
+      <c r="C68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E68" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" s="21" t="s">
+      <c r="F68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J67" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L67" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF67" s="24"/>
-      <c r="AMG67" s="24"/>
-      <c r="AMH67" s="24"/>
-      <c r="AMI67" s="24"/>
-      <c r="AMJ67" s="24"/>
-    </row>
-    <row r="68" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18" t="n">
-        <v>60</v>
-      </c>
-      <c r="B68" s="18" t="s">
+      <c r="J68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF68" s="4"/>
+      <c r="AMG68" s="4"/>
+      <c r="AMH68" s="4"/>
+      <c r="AMI68" s="4"/>
+      <c r="AMJ68" s="4"/>
+    </row>
+    <row r="69" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="18" t="s">
+      <c r="C69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="18" t="s">
+      <c r="F69" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J68" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L68" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF68" s="20"/>
-      <c r="AMG68" s="20"/>
-      <c r="AMH68" s="20"/>
-      <c r="AMI68" s="20"/>
-      <c r="AMJ68" s="20"/>
-    </row>
-    <row r="69" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18" t="n">
-        <v>61</v>
-      </c>
-      <c r="B69" s="18" t="s">
+      <c r="J69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF69" s="4"/>
+      <c r="AMG69" s="4"/>
+      <c r="AMH69" s="4"/>
+      <c r="AMI69" s="4"/>
+      <c r="AMJ69" s="4"/>
+    </row>
+    <row r="70" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="18" t="s">
+      <c r="C70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF70" s="4"/>
+      <c r="AMG70" s="4"/>
+      <c r="AMH70" s="4"/>
+      <c r="AMI70" s="4"/>
+      <c r="AMJ70" s="4"/>
+    </row>
+    <row r="71" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E71" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="18" t="s">
+      <c r="F71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J69" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K69" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L69" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF69" s="20"/>
-      <c r="AMG69" s="20"/>
-      <c r="AMH69" s="20"/>
-      <c r="AMI69" s="20"/>
-      <c r="AMJ69" s="20"/>
-    </row>
-    <row r="70" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18" t="n">
-        <v>62</v>
-      </c>
-      <c r="B70" s="18" t="s">
+      <c r="J71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF71" s="4"/>
+      <c r="AMG71" s="4"/>
+      <c r="AMH71" s="4"/>
+      <c r="AMI71" s="4"/>
+      <c r="AMJ71" s="4"/>
+    </row>
+    <row r="72" s="19" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B72" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" s="19" t="s">
+      <c r="C72" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" s="18" t="s">
+      <c r="F72" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J70" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K70" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L70" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF70" s="20"/>
-      <c r="AMG70" s="20"/>
-      <c r="AMH70" s="20"/>
-      <c r="AMI70" s="20"/>
-      <c r="AMJ70" s="20"/>
-    </row>
-    <row r="71" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18" t="n">
-        <v>63</v>
-      </c>
-      <c r="B71" s="18" t="s">
+      <c r="J72" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMF72" s="22"/>
+      <c r="AMG72" s="22"/>
+      <c r="AMH72" s="22"/>
+      <c r="AMI72" s="22"/>
+      <c r="AMJ72" s="22"/>
+    </row>
+    <row r="73" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" s="18" t="s">
+      <c r="C73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E73" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="18" t="s">
+      <c r="F73" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J71" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L71" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF71" s="20"/>
-      <c r="AMG71" s="20"/>
-      <c r="AMH71" s="20"/>
-      <c r="AMI71" s="20"/>
-      <c r="AMJ71" s="20"/>
-    </row>
-    <row r="72" s="21" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="21" t="n">
-        <v>64</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J72" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L72" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF72" s="24"/>
-      <c r="AMG72" s="24"/>
-      <c r="AMH72" s="24"/>
-      <c r="AMI72" s="24"/>
-      <c r="AMJ72" s="24"/>
-    </row>
-    <row r="73" s="18" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18" t="n">
-        <v>65</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J73" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L73" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMF73" s="20"/>
-      <c r="AMG73" s="20"/>
-      <c r="AMH73" s="20"/>
-      <c r="AMI73" s="20"/>
-      <c r="AMJ73" s="20"/>
+      <c r="J73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMF73" s="4"/>
+      <c r="AMG73" s="4"/>
+      <c r="AMH73" s="4"/>
+      <c r="AMI73" s="4"/>
+      <c r="AMJ73" s="4"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -7718,8 +7792,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7735,7 +7809,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7804,19 +7878,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
@@ -7825,7 +7899,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>22</v>
@@ -7842,13 +7916,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
@@ -7863,7 +7937,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -7880,13 +7954,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -7901,7 +7975,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>22</v>
@@ -7918,7 +7992,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -7956,7 +8030,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -7994,7 +8068,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -8032,7 +8106,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>27</v>
@@ -8076,7 +8150,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>38</v>
@@ -8088,13 +8162,13 @@
         <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>37</v>
@@ -8120,7 +8194,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>35</v>
@@ -8164,13 +8238,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>44</v>
@@ -8185,7 +8259,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -8194,7 +8268,7 @@
         <v>23</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8202,13 +8276,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>85</v>
@@ -8223,7 +8297,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -8240,13 +8314,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>85</v>
@@ -8261,7 +8335,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -8278,13 +8352,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>85</v>
@@ -8299,7 +8373,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -8316,13 +8390,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>48</v>
@@ -8354,10 +8428,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>43</v>
@@ -8381,7 +8455,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>32</v>
@@ -8392,7 +8466,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -8419,7 +8493,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>32</v>
@@ -8430,7 +8504,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
@@ -8457,7 +8531,7 @@
         <v>22</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>32</v>
@@ -8468,10 +8542,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
@@ -8505,90 +8579,96 @@
       <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="23" t="s">
+      <c r="F24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="J24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="23" t="s">
+      <c r="F25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>152</v>
-      </c>
+      <c r="J25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>44</v>
@@ -8603,7 +8683,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>22</v>
@@ -8620,13 +8700,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>44</v>
@@ -8641,7 +8721,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>22</v>
@@ -8658,7 +8738,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>50</v>
@@ -8685,7 +8765,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>32</v>
@@ -8696,7 +8776,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
@@ -8723,7 +8803,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>32</v>
@@ -8734,7 +8814,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -8772,7 +8852,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>61</v>
@@ -8810,7 +8890,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>46</v>
@@ -8848,7 +8928,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>50</v>
@@ -8886,7 +8966,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>51</v>
@@ -8924,7 +9004,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>25</v>
@@ -8962,7 +9042,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>27</v>
@@ -9000,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>33</v>
@@ -9038,7 +9118,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>35</v>
@@ -9076,7 +9156,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>42</v>
@@ -9114,7 +9194,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -9158,7 +9238,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
@@ -9196,7 +9276,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -9267,7 +9347,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9336,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -9371,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -9406,7 +9486,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -9418,7 +9498,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -9433,7 +9513,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9441,7 +9521,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -9479,7 +9559,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -9517,7 +9597,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -9555,7 +9635,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
@@ -9576,7 +9656,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -9585,7 +9665,7 @@
         <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9593,7 +9673,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
@@ -9614,7 +9694,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>22</v>
@@ -9623,7 +9703,7 @@
         <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9631,7 +9711,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -9652,7 +9732,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -9661,7 +9741,7 @@
         <v>23</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9669,13 +9749,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>48</v>
@@ -9690,7 +9770,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -9707,13 +9787,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>48</v>
@@ -9725,10 +9805,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -9745,13 +9825,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>48</v>
@@ -9766,7 +9846,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -9783,13 +9863,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>48</v>
@@ -9804,7 +9884,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -9821,13 +9901,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>48</v>
@@ -9842,7 +9922,7 @@
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
@@ -9859,13 +9939,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>48</v>
@@ -9880,7 +9960,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>22</v>
@@ -9897,7 +9977,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
@@ -9924,7 +10004,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>32</v>
@@ -9935,13 +10015,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>48</v>
@@ -9973,13 +10053,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>48</v>
@@ -10011,13 +10091,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>48</v>
@@ -10049,13 +10129,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>48</v>
@@ -10087,13 +10167,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>48</v>
@@ -10125,13 +10205,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>48</v>
@@ -10163,13 +10243,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>48</v>
@@ -10201,13 +10281,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>48</v>
@@ -10239,13 +10319,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>48</v>
@@ -10277,13 +10357,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>48</v>
@@ -10344,7 +10424,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10413,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -10448,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -10483,7 +10563,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -10518,13 +10598,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>48</v>
@@ -10539,13 +10619,13 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10553,13 +10633,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>48</v>
@@ -10574,7 +10654,7 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
@@ -10588,13 +10668,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>48</v>
@@ -10603,13 +10683,13 @@
         <v>19</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>22</v>
@@ -10623,13 +10703,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>48</v>
@@ -10644,7 +10724,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -10658,7 +10738,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>78</v>
@@ -10693,13 +10773,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>30</v>
@@ -10728,16 +10808,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>20</v>
@@ -10763,13 +10843,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>30</v>
@@ -10829,7 +10909,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10898,7 +10978,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -10936,7 +11016,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -10974,7 +11054,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -11012,7 +11092,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -11050,7 +11130,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -11088,7 +11168,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -11126,13 +11206,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>48</v>
@@ -11147,7 +11227,7 @@
         <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>22</v>
@@ -11164,13 +11244,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>48</v>
@@ -11185,7 +11265,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>22</v>
@@ -11202,13 +11282,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>48</v>
@@ -11223,7 +11303,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>22</v>
@@ -11240,13 +11320,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>48</v>
@@ -11261,7 +11341,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>22</v>
@@ -11278,19 +11358,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -11299,7 +11379,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>22</v>
@@ -11316,13 +11396,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>85</v>
@@ -11337,7 +11417,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>22</v>
@@ -11354,13 +11434,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -11375,7 +11455,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>22</v>
@@ -11392,13 +11472,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>44</v>
@@ -11413,7 +11493,7 @@
         <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
@@ -11430,13 +11510,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>44</v>
@@ -11451,7 +11531,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>22</v>
@@ -11468,13 +11548,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>44</v>
@@ -11489,7 +11569,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>22</v>
@@ -11506,13 +11586,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>44</v>
@@ -11527,7 +11607,7 @@
         <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>22</v>
@@ -11544,13 +11624,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>44</v>
@@ -11565,7 +11645,7 @@
         <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>22</v>
@@ -11582,13 +11662,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>44</v>
@@ -11603,7 +11683,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>22</v>
@@ -11620,16 +11700,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
@@ -11641,7 +11721,7 @@
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>22</v>
@@ -11656,16 +11736,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
@@ -11677,7 +11757,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>22</v>
@@ -11692,16 +11772,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
@@ -11713,7 +11793,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>22</v>
@@ -11728,16 +11808,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
@@ -11749,7 +11829,7 @@
         <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>22</v>
@@ -11764,16 +11844,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
@@ -11785,7 +11865,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>22</v>
@@ -11813,8 +11893,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11835,7 +11915,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11901,7 +11981,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -11939,13 +12019,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
@@ -11960,7 +12040,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>22</v>
@@ -11974,13 +12054,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -11995,7 +12075,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>22</v>
@@ -12009,16 +12089,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -12030,16 +12110,16 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12047,16 +12127,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -12068,197 +12148,212 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="B11" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="3"/>
+      <c r="F11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="3"/>
+      <c r="F12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="3"/>
+      <c r="F13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="3"/>
+      <c r="F14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="3"/>
+      <c r="F15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" s="19"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
